--- a/R/DATA-RAW/papers2.xlsx
+++ b/R/DATA-RAW/papers2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fsu-my.sharepoint.com/personal/meh03c_fsu_edu/Documents/MANUSCRIPTS/WORKING/cc-aging-review/R/DATA-RAW/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbrky\Desktop\School\Aging and Heat\cc-aging-review\R\DATA-RAW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="147" documentId="8_{5245D427-B8B1-49DA-BB44-E399BCC91625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95634956-CD77-49FB-9F57-9D4E4FA1AA8E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB48E92-C69B-4DC1-8468-981FF719F54E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{0474FF3C-F5F4-4032-A5CB-9951DE8E4272}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0474FF3C-F5F4-4032-A5CB-9951DE8E4272}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19847" uniqueCount="3811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19851" uniqueCount="3811">
   <si>
     <t>AU</t>
   </si>
@@ -12216,17 +12216,18 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AC600"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="T601" sqref="T601"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="14" max="14" width="61.5546875" customWidth="1"/>
-    <col min="15" max="15" width="14.109375" customWidth="1"/>
+    <col min="14" max="14" width="61.5703125" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12315,7 +12316,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -12404,7 +12405,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -12468,9 +12469,8 @@
         <f>VLOOKUP($C3,Sheet2!$C:$U,9,FALSE)</f>
         <v>Exposure</v>
       </c>
-      <c r="T3" t="str">
-        <f>VLOOKUP($C3,Sheet2!$C:$U,10,FALSE)</f>
-        <v>Mortality</v>
+      <c r="T3" t="s">
+        <v>107</v>
       </c>
       <c r="U3" t="str">
         <f>VLOOKUP($C3,Sheet2!$C:$U,11,FALSE)</f>
@@ -12508,7 +12508,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -12612,7 +12612,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -12716,7 +12716,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -12805,7 +12805,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -12909,7 +12909,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -13013,7 +13013,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -13102,7 +13102,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -13191,7 +13191,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>73</v>
       </c>
@@ -13277,7 +13277,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>83</v>
       </c>
@@ -13366,7 +13366,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>88</v>
       </c>
@@ -13470,7 +13470,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>92</v>
       </c>
@@ -13574,7 +13574,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>96</v>
       </c>
@@ -13677,7 +13677,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>100</v>
       </c>
@@ -13763,7 +13763,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>110</v>
       </c>
@@ -13852,7 +13852,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>115</v>
       </c>
@@ -13956,7 +13956,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>119</v>
       </c>
@@ -14060,7 +14060,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>123</v>
       </c>
@@ -14149,7 +14149,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>130</v>
       </c>
@@ -14238,7 +14238,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>135</v>
       </c>
@@ -14342,7 +14342,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>139</v>
       </c>
@@ -14446,7 +14446,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>143</v>
       </c>
@@ -14550,7 +14550,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>147</v>
       </c>
@@ -14613,9 +14613,8 @@
         <f>VLOOKUP($C25,Sheet2!$C:$U,9,FALSE)</f>
         <v>Sensitivity</v>
       </c>
-      <c r="T25" t="str">
-        <f>VLOOKUP($C25,Sheet2!$C:$U,10,FALSE)</f>
-        <v>Mortality</v>
+      <c r="T25" t="s">
+        <v>107</v>
       </c>
       <c r="U25" t="str">
         <f>VLOOKUP($C25,Sheet2!$C:$U,11,FALSE)</f>
@@ -14653,7 +14652,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>151</v>
       </c>
@@ -14757,7 +14756,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>155</v>
       </c>
@@ -14846,7 +14845,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>161</v>
       </c>
@@ -14935,7 +14934,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>166</v>
       </c>
@@ -15021,7 +15020,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>174</v>
       </c>
@@ -15110,7 +15109,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>180</v>
       </c>
@@ -15199,7 +15198,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>185</v>
       </c>
@@ -15288,7 +15287,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>193</v>
       </c>
@@ -15392,7 +15391,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>197</v>
       </c>
@@ -15481,7 +15480,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>207</v>
       </c>
@@ -15585,7 +15584,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>211</v>
       </c>
@@ -15674,7 +15673,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>217</v>
       </c>
@@ -15763,7 +15762,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>222</v>
       </c>
@@ -15849,7 +15848,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>227</v>
       </c>
@@ -15938,7 +15937,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>234</v>
       </c>
@@ -16027,7 +16026,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>240</v>
       </c>
@@ -16116,7 +16115,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>246</v>
       </c>
@@ -16220,7 +16219,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>250</v>
       </c>
@@ -16324,7 +16323,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>254</v>
       </c>
@@ -16413,7 +16412,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>260</v>
       </c>
@@ -16502,7 +16501,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>265</v>
       </c>
@@ -16588,7 +16587,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>274</v>
       </c>
@@ -16692,7 +16691,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>278</v>
       </c>
@@ -16781,7 +16780,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>288</v>
       </c>
@@ -16870,7 +16869,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>297</v>
       </c>
@@ -16974,7 +16973,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>301</v>
       </c>
@@ -17063,7 +17062,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>312</v>
       </c>
@@ -17152,7 +17151,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>318</v>
       </c>
@@ -17241,7 +17240,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>324</v>
       </c>
@@ -17330,7 +17329,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>330</v>
       </c>
@@ -17434,7 +17433,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>334</v>
       </c>
@@ -17523,7 +17522,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>340</v>
       </c>
@@ -17612,7 +17611,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>351</v>
       </c>
@@ -17701,7 +17700,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>357</v>
       </c>
@@ -17790,7 +17789,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>362</v>
       </c>
@@ -17879,7 +17878,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>368</v>
       </c>
@@ -17968,7 +17967,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>378</v>
       </c>
@@ -18057,7 +18056,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>384</v>
       </c>
@@ -18146,7 +18145,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>390</v>
       </c>
@@ -18235,7 +18234,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>395</v>
       </c>
@@ -18324,7 +18323,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>400</v>
       </c>
@@ -18413,7 +18412,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>406</v>
       </c>
@@ -18502,7 +18501,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>412</v>
       </c>
@@ -18591,7 +18590,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>425</v>
       </c>
@@ -18680,7 +18679,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>431</v>
       </c>
@@ -18769,7 +18768,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="71" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>442</v>
       </c>
@@ -18858,7 +18857,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="72" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>447</v>
       </c>
@@ -18947,7 +18946,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>453</v>
       </c>
@@ -19036,7 +19035,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>463</v>
       </c>
@@ -19125,7 +19124,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>469</v>
       </c>
@@ -19214,7 +19213,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="76" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>475</v>
       </c>
@@ -19303,7 +19302,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>481</v>
       </c>
@@ -19392,7 +19391,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>493</v>
       </c>
@@ -19495,7 +19494,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="79" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>497</v>
       </c>
@@ -19584,7 +19583,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="80" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>507</v>
       </c>
@@ -19673,7 +19672,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="81" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>513</v>
       </c>
@@ -19762,7 +19761,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>522</v>
       </c>
@@ -19866,7 +19865,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="83" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>526</v>
       </c>
@@ -19955,7 +19954,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="84" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>532</v>
       </c>
@@ -20044,7 +20043,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>538</v>
       </c>
@@ -20133,7 +20132,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="86" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>544</v>
       </c>
@@ -20222,7 +20221,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="87" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>553</v>
       </c>
@@ -20311,7 +20310,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="88" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>559</v>
       </c>
@@ -20400,7 +20399,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="89" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>565</v>
       </c>
@@ -20486,7 +20485,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="90" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>573</v>
       </c>
@@ -20590,7 +20589,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="91" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>577</v>
       </c>
@@ -20679,7 +20678,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="92" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>583</v>
       </c>
@@ -20768,7 +20767,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="93" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>589</v>
       </c>
@@ -20857,7 +20856,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="94" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>595</v>
       </c>
@@ -20946,7 +20945,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="95" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>601</v>
       </c>
@@ -21035,7 +21034,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="96" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>610</v>
       </c>
@@ -21124,7 +21123,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="97" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>615</v>
       </c>
@@ -21213,7 +21212,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="98" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>621</v>
       </c>
@@ -21302,7 +21301,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="99" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>627</v>
       </c>
@@ -21391,7 +21390,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="100" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>633</v>
       </c>
@@ -21480,7 +21479,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="101" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>639</v>
       </c>
@@ -21584,7 +21583,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="102" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>643</v>
       </c>
@@ -21673,7 +21672,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="103" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>652</v>
       </c>
@@ -21762,7 +21761,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="104" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>661</v>
       </c>
@@ -21851,7 +21850,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="105" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>667</v>
       </c>
@@ -21940,7 +21939,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="106" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>673</v>
       </c>
@@ -22029,7 +22028,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="107" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>681</v>
       </c>
@@ -22118,7 +22117,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="108" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>687</v>
       </c>
@@ -22222,7 +22221,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="109" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>691</v>
       </c>
@@ -22311,7 +22310,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="110" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>697</v>
       </c>
@@ -22400,7 +22399,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="111" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>703</v>
       </c>
@@ -22489,7 +22488,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="112" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>709</v>
       </c>
@@ -22578,7 +22577,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="113" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>715</v>
       </c>
@@ -22667,7 +22666,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="114" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>727</v>
       </c>
@@ -22756,7 +22755,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="115" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>735</v>
       </c>
@@ -22845,7 +22844,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="116" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>745</v>
       </c>
@@ -22934,7 +22933,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="117" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>750</v>
       </c>
@@ -23023,7 +23022,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="118" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>756</v>
       </c>
@@ -23112,7 +23111,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>762</v>
       </c>
@@ -23201,7 +23200,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="120" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>769</v>
       </c>
@@ -23290,7 +23289,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="121" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>775</v>
       </c>
@@ -23379,7 +23378,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="122" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>784</v>
       </c>
@@ -23468,7 +23467,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="123" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>790</v>
       </c>
@@ -23570,7 +23569,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="124" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>796</v>
       </c>
@@ -23659,7 +23658,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="125" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>802</v>
       </c>
@@ -23748,7 +23747,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="126" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>808</v>
       </c>
@@ -23837,7 +23836,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="127" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>814</v>
       </c>
@@ -23926,7 +23925,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="128" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>820</v>
       </c>
@@ -24015,7 +24014,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="129" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>826</v>
       </c>
@@ -24104,7 +24103,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="130" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>832</v>
       </c>
@@ -24193,7 +24192,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="131" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>838</v>
       </c>
@@ -24282,7 +24281,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="132" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>844</v>
       </c>
@@ -24371,7 +24370,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="133" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>850</v>
       </c>
@@ -24460,7 +24459,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="134" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>856</v>
       </c>
@@ -24549,7 +24548,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="135" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>862</v>
       </c>
@@ -24638,7 +24637,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="136" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>868</v>
       </c>
@@ -24727,7 +24726,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>876</v>
       </c>
@@ -24816,7 +24815,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="138" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>882</v>
       </c>
@@ -24905,7 +24904,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="139" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>888</v>
       </c>
@@ -24994,7 +24993,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="140" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>894</v>
       </c>
@@ -25083,7 +25082,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="141" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>900</v>
       </c>
@@ -25172,7 +25171,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="142" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>906</v>
       </c>
@@ -25261,7 +25260,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="143" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>912</v>
       </c>
@@ -25350,7 +25349,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="144" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>918</v>
       </c>
@@ -25439,7 +25438,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="145" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>925</v>
       </c>
@@ -25528,7 +25527,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="146" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>931</v>
       </c>
@@ -25617,7 +25616,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="147" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>937</v>
       </c>
@@ -25706,7 +25705,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="148" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>943</v>
       </c>
@@ -25795,7 +25794,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="149" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>951</v>
       </c>
@@ -25884,7 +25883,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="150" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>959</v>
       </c>
@@ -25973,7 +25972,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="151" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>965</v>
       </c>
@@ -26062,7 +26061,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="152" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>971</v>
       </c>
@@ -26151,7 +26150,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="153" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>977</v>
       </c>
@@ -26240,7 +26239,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="154" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>983</v>
       </c>
@@ -26329,7 +26328,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="155" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>989</v>
       </c>
@@ -26418,7 +26417,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="156" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>995</v>
       </c>
@@ -26507,7 +26506,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="157" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>1001</v>
       </c>
@@ -26596,7 +26595,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="158" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>1009</v>
       </c>
@@ -26685,7 +26684,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="159" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>1015</v>
       </c>
@@ -26774,7 +26773,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="160" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>1021</v>
       </c>
@@ -26863,7 +26862,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="161" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>1027</v>
       </c>
@@ -26952,7 +26951,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="162" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>1033</v>
       </c>
@@ -27041,7 +27040,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="163" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>1039</v>
       </c>
@@ -27130,7 +27129,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="164" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>1045</v>
       </c>
@@ -27219,7 +27218,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="165" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>1050</v>
       </c>
@@ -27308,7 +27307,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="166" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>1055</v>
       </c>
@@ -27367,7 +27366,7 @@
         <v>271</v>
       </c>
       <c r="T166" t="s">
-        <v>1061</v>
+        <v>107</v>
       </c>
       <c r="U166" t="s">
         <v>80</v>
@@ -27397,7 +27396,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="167" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>1063</v>
       </c>
@@ -27486,7 +27485,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="168" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>1068</v>
       </c>
@@ -27575,7 +27574,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="169" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>1073</v>
       </c>
@@ -27679,7 +27678,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="170" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>1077</v>
       </c>
@@ -27783,7 +27782,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="171" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>1081</v>
       </c>
@@ -27872,7 +27871,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="172" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>1086</v>
       </c>
@@ -27961,7 +27960,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="173" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>1091</v>
       </c>
@@ -28065,7 +28064,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="174" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>1095</v>
       </c>
@@ -28169,7 +28168,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="175" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>1099</v>
       </c>
@@ -28272,7 +28271,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="176" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>1103</v>
       </c>
@@ -28376,7 +28375,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="177" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>1107</v>
       </c>
@@ -28465,7 +28464,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="178" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>1111</v>
       </c>
@@ -28551,7 +28550,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="179" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>1118</v>
       </c>
@@ -28640,7 +28639,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="180" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>1123</v>
       </c>
@@ -28744,7 +28743,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="181" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>1127</v>
       </c>
@@ -28833,7 +28832,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="182" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>1132</v>
       </c>
@@ -28937,7 +28936,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="183" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>1136</v>
       </c>
@@ -29041,7 +29040,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="184" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>1140</v>
       </c>
@@ -29145,7 +29144,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="185" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>1144</v>
       </c>
@@ -29231,7 +29230,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="186" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>1151</v>
       </c>
@@ -29335,7 +29334,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="187" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>1155</v>
       </c>
@@ -29438,7 +29437,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="188" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>1159</v>
       </c>
@@ -29542,7 +29541,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="189" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>1163</v>
       </c>
@@ -29645,7 +29644,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="190" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>1167</v>
       </c>
@@ -29734,7 +29733,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="191" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>1172</v>
       </c>
@@ -29823,7 +29822,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="192" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>1178</v>
       </c>
@@ -29926,7 +29925,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="193" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>1182</v>
       </c>
@@ -30015,7 +30014,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="194" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>1187</v>
       </c>
@@ -30119,7 +30118,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="195" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>1191</v>
       </c>
@@ -30208,7 +30207,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="196" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>1196</v>
       </c>
@@ -30297,7 +30296,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="197" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>1202</v>
       </c>
@@ -30401,7 +30400,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="198" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>1206</v>
       </c>
@@ -30490,7 +30489,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="199" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>1210</v>
       </c>
@@ -30594,7 +30593,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="200" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>1214</v>
       </c>
@@ -30698,7 +30697,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="201" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>1218</v>
       </c>
@@ -30787,7 +30786,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="202" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>1224</v>
       </c>
@@ -30873,7 +30872,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="203" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>1230</v>
       </c>
@@ -30962,7 +30961,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="204" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>1235</v>
       </c>
@@ -31051,7 +31050,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="205" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>1239</v>
       </c>
@@ -31155,7 +31154,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="206" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>1243</v>
       </c>
@@ -31244,7 +31243,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="207" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>1251</v>
       </c>
@@ -31333,7 +31332,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="208" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>1255</v>
       </c>
@@ -31437,7 +31436,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="209" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>1259</v>
       </c>
@@ -31526,7 +31525,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="210" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>1265</v>
       </c>
@@ -31615,7 +31614,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="211" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>1271</v>
       </c>
@@ -31704,7 +31703,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="212" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>1277</v>
       </c>
@@ -31793,7 +31792,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="213" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>1283</v>
       </c>
@@ -31882,7 +31881,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="214" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>1288</v>
       </c>
@@ -31971,7 +31970,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="215" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>1293</v>
       </c>
@@ -32060,7 +32059,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="216" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>1297</v>
       </c>
@@ -32164,7 +32163,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="217" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>1301</v>
       </c>
@@ -32253,7 +32252,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="218" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>1305</v>
       </c>
@@ -32342,7 +32341,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="219" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>1311</v>
       </c>
@@ -32431,7 +32430,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="220" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>1317</v>
       </c>
@@ -32520,7 +32519,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="221" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>1323</v>
       </c>
@@ -32623,7 +32622,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="222" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>1327</v>
       </c>
@@ -32712,7 +32711,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="223" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>1333</v>
       </c>
@@ -32801,7 +32800,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="224" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>1339</v>
       </c>
@@ -32890,7 +32889,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="225" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>1349</v>
       </c>
@@ -32976,7 +32975,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="226" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>1356</v>
       </c>
@@ -33065,7 +33064,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="227" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>1362</v>
       </c>
@@ -33154,7 +33153,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="228" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>1368</v>
       </c>
@@ -33243,7 +33242,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="229" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>1374</v>
       </c>
@@ -33332,7 +33331,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="230" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>1380</v>
       </c>
@@ -33421,7 +33420,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="231" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>1386</v>
       </c>
@@ -33510,7 +33509,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="232" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>1393</v>
       </c>
@@ -33599,7 +33598,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="233" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>1402</v>
       </c>
@@ -33688,7 +33687,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="234" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>1408</v>
       </c>
@@ -33777,7 +33776,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="235" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>1414</v>
       </c>
@@ -33866,7 +33865,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="236" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>1423</v>
       </c>
@@ -33955,7 +33954,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="237" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>1429</v>
       </c>
@@ -34044,7 +34043,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="238" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>1435</v>
       </c>
@@ -34133,7 +34132,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="239" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>1441</v>
       </c>
@@ -34222,7 +34221,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="240" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>1446</v>
       </c>
@@ -34326,7 +34325,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="241" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>1450</v>
       </c>
@@ -34415,7 +34414,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="242" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>1455</v>
       </c>
@@ -34504,7 +34503,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="243" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>1461</v>
       </c>
@@ -34593,7 +34592,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="244" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>1467</v>
       </c>
@@ -34682,7 +34681,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="245" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>1472</v>
       </c>
@@ -34771,7 +34770,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="246" spans="1:29" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:29" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>1479</v>
       </c>
@@ -34860,7 +34859,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="247" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>1488</v>
       </c>
@@ -34949,7 +34948,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="248" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>1494</v>
       </c>
@@ -35038,7 +35037,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="249" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>1500</v>
       </c>
@@ -35127,7 +35126,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="250" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>1506</v>
       </c>
@@ -35216,7 +35215,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="251" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>1512</v>
       </c>
@@ -35305,7 +35304,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="252" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>1518</v>
       </c>
@@ -35394,7 +35393,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="253" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>1526</v>
       </c>
@@ -35498,7 +35497,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="254" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>1530</v>
       </c>
@@ -35587,7 +35586,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="255" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>1540</v>
       </c>
@@ -35676,7 +35675,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="256" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>1546</v>
       </c>
@@ -35765,7 +35764,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="257" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>1552</v>
       </c>
@@ -35854,7 +35853,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="258" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>1558</v>
       </c>
@@ -35943,7 +35942,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="259" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>1564</v>
       </c>
@@ -36032,7 +36031,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="260" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>1570</v>
       </c>
@@ -36121,7 +36120,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="261" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>1576</v>
       </c>
@@ -36225,7 +36224,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="262" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>1580</v>
       </c>
@@ -36314,7 +36313,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="263" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>1585</v>
       </c>
@@ -36403,7 +36402,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="264" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>1591</v>
       </c>
@@ -36492,7 +36491,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="265" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>1601</v>
       </c>
@@ -36581,7 +36580,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="266" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>1607</v>
       </c>
@@ -36670,7 +36669,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="267" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>1613</v>
       </c>
@@ -36759,7 +36758,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="268" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>1619</v>
       </c>
@@ -36848,7 +36847,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="269" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>1625</v>
       </c>
@@ -36937,7 +36936,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="270" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>1631</v>
       </c>
@@ -37026,7 +37025,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="271" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>1637</v>
       </c>
@@ -37115,7 +37114,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="272" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>1644</v>
       </c>
@@ -37204,7 +37203,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="273" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>1650</v>
       </c>
@@ -37293,7 +37292,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="274" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>1656</v>
       </c>
@@ -37382,7 +37381,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="275" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>1662</v>
       </c>
@@ -37471,7 +37470,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="276" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>1669</v>
       </c>
@@ -37560,7 +37559,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="277" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>1678</v>
       </c>
@@ -37646,7 +37645,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="278" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>1683</v>
       </c>
@@ -37735,7 +37734,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="279" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>1689</v>
       </c>
@@ -37824,7 +37823,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="280" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>1695</v>
       </c>
@@ -37913,7 +37912,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="281" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>1701</v>
       </c>
@@ -38002,7 +38001,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="282" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>1707</v>
       </c>
@@ -38091,7 +38090,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="283" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>1713</v>
       </c>
@@ -38180,7 +38179,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="284" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>1719</v>
       </c>
@@ -38269,7 +38268,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="285" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>1725</v>
       </c>
@@ -38358,7 +38357,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="286" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>1731</v>
       </c>
@@ -38447,7 +38446,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="287" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>1738</v>
       </c>
@@ -38536,7 +38535,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="288" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>1744</v>
       </c>
@@ -38625,7 +38624,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="289" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>1750</v>
       </c>
@@ -38714,7 +38713,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="290" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>1756</v>
       </c>
@@ -38803,7 +38802,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="291" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>1762</v>
       </c>
@@ -38892,7 +38891,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="292" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>1768</v>
       </c>
@@ -38981,7 +38980,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="293" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>1774</v>
       </c>
@@ -39070,7 +39069,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="294" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>1780</v>
       </c>
@@ -39159,7 +39158,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="295" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>1786</v>
       </c>
@@ -39248,7 +39247,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="296" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>1793</v>
       </c>
@@ -39337,7 +39336,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="297" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>1802</v>
       </c>
@@ -39426,7 +39425,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="298" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>1810</v>
       </c>
@@ -39515,7 +39514,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="299" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>1816</v>
       </c>
@@ -39604,7 +39603,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="300" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>1825</v>
       </c>
@@ -39693,7 +39692,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="301" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>1831</v>
       </c>
@@ -39782,7 +39781,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="302" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>1837</v>
       </c>
@@ -39871,7 +39870,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="303" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>1843</v>
       </c>
@@ -39960,7 +39959,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="304" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>1849</v>
       </c>
@@ -40046,7 +40045,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="305" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>1856</v>
       </c>
@@ -40135,7 +40134,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="306" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>1863</v>
       </c>
@@ -40224,7 +40223,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="307" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>1869</v>
       </c>
@@ -40313,7 +40312,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="308" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>1875</v>
       </c>
@@ -40402,7 +40401,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="309" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>1881</v>
       </c>
@@ -40491,7 +40490,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="310" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>1887</v>
       </c>
@@ -40580,7 +40579,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="311" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>1893</v>
       </c>
@@ -40669,7 +40668,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="312" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>1899</v>
       </c>
@@ -40758,7 +40757,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="313" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>1904</v>
       </c>
@@ -40847,7 +40846,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="314" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>1909</v>
       </c>
@@ -40936,7 +40935,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="315" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>1917</v>
       </c>
@@ -41025,7 +41024,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="316" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>1922</v>
       </c>
@@ -41114,7 +41113,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="317" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>1927</v>
       </c>
@@ -41203,7 +41202,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="318" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>1932</v>
       </c>
@@ -41292,7 +41291,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="319" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>1937</v>
       </c>
@@ -41396,7 +41395,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="320" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>1941</v>
       </c>
@@ -41500,7 +41499,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="321" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>1945</v>
       </c>
@@ -41604,7 +41603,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="322" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>1949</v>
       </c>
@@ -41708,7 +41707,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="323" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>1953</v>
       </c>
@@ -41797,7 +41796,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="324" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>1958</v>
       </c>
@@ -41886,7 +41885,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="325" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>1962</v>
       </c>
@@ -41975,7 +41974,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="326" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>1966</v>
       </c>
@@ -42064,7 +42063,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="327" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>1972</v>
       </c>
@@ -42153,7 +42152,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="328" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>1978</v>
       </c>
@@ -42242,7 +42241,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="329" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>1984</v>
       </c>
@@ -42346,7 +42345,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="330" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>1988</v>
       </c>
@@ -42435,7 +42434,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="331" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>1994</v>
       </c>
@@ -42524,7 +42523,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="332" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>2000</v>
       </c>
@@ -42628,7 +42627,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="333" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>2004</v>
       </c>
@@ -42732,7 +42731,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="334" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>2008</v>
       </c>
@@ -42821,7 +42820,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="335" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>2015</v>
       </c>
@@ -42910,7 +42909,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="336" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>2021</v>
       </c>
@@ -42999,7 +42998,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="337" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>2029</v>
       </c>
@@ -43088,7 +43087,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="338" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>2038</v>
       </c>
@@ -43177,7 +43176,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="339" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>2044</v>
       </c>
@@ -43266,7 +43265,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="340" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>2049</v>
       </c>
@@ -43355,7 +43354,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="341" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>2054</v>
       </c>
@@ -43444,7 +43443,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="342" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>2060</v>
       </c>
@@ -43533,7 +43532,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="343" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>2066</v>
       </c>
@@ -43622,7 +43621,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="344" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>2072</v>
       </c>
@@ -43711,7 +43710,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="345" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>2078</v>
       </c>
@@ -43800,7 +43799,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="346" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>2084</v>
       </c>
@@ -43889,7 +43888,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="347" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>2090</v>
       </c>
@@ -43978,7 +43977,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="348" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>2095</v>
       </c>
@@ -44067,7 +44066,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="349" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>2101</v>
       </c>
@@ -44171,7 +44170,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="350" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>2105</v>
       </c>
@@ -44260,7 +44259,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="351" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>2111</v>
       </c>
@@ -44346,7 +44345,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="352" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>2117</v>
       </c>
@@ -44435,7 +44434,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="353" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>2123</v>
       </c>
@@ -44524,7 +44523,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="354" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>2129</v>
       </c>
@@ -44613,7 +44612,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="355" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>2135</v>
       </c>
@@ -44702,7 +44701,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="356" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>2145</v>
       </c>
@@ -44791,7 +44790,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="357" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>2151</v>
       </c>
@@ -44880,7 +44879,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="358" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>2157</v>
       </c>
@@ -44969,7 +44968,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="359" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>2163</v>
       </c>
@@ -45058,7 +45057,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="360" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>2169</v>
       </c>
@@ -45147,7 +45146,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="361" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>2177</v>
       </c>
@@ -45236,7 +45235,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="362" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>2183</v>
       </c>
@@ -45325,7 +45324,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="363" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>2191</v>
       </c>
@@ -45414,7 +45413,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="364" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>2199</v>
       </c>
@@ -45503,7 +45502,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="365" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>2206</v>
       </c>
@@ -45592,7 +45591,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="366" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>2214</v>
       </c>
@@ -45681,7 +45680,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="367" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>2220</v>
       </c>
@@ -45770,7 +45769,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="368" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>2229</v>
       </c>
@@ -45859,7 +45858,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="369" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>2235</v>
       </c>
@@ -45948,7 +45947,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="370" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>2241</v>
       </c>
@@ -46037,7 +46036,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="371" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>2247</v>
       </c>
@@ -46126,7 +46125,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="372" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>2255</v>
       </c>
@@ -46215,7 +46214,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="373" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>2264</v>
       </c>
@@ -46304,7 +46303,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="374" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>2271</v>
       </c>
@@ -46393,7 +46392,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="375" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>2277</v>
       </c>
@@ -46482,7 +46481,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="376" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>2282</v>
       </c>
@@ -46571,7 +46570,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="377" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>2288</v>
       </c>
@@ -46657,7 +46656,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="378" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>2296</v>
       </c>
@@ -46746,7 +46745,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="379" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>2301</v>
       </c>
@@ -46835,7 +46834,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="380" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>2306</v>
       </c>
@@ -46921,7 +46920,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="381" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>2311</v>
       </c>
@@ -47010,7 +47009,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="382" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>2316</v>
       </c>
@@ -47114,7 +47113,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="383" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>2320</v>
       </c>
@@ -47218,7 +47217,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="384" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>2324</v>
       </c>
@@ -47321,7 +47320,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="385" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>2328</v>
       </c>
@@ -47410,7 +47409,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="386" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>2333</v>
       </c>
@@ -47499,7 +47498,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="387" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>2337</v>
       </c>
@@ -47562,9 +47561,8 @@
         <f>VLOOKUP($C387,Sheet2!$C:$U,9,FALSE)</f>
         <v>VESA</v>
       </c>
-      <c r="T387" t="str">
-        <f>VLOOKUP($C387,Sheet2!$C:$U,10,FALSE)</f>
-        <v>mortaility</v>
+      <c r="T387" t="s">
+        <v>107</v>
       </c>
       <c r="U387" t="str">
         <f>VLOOKUP($C387,Sheet2!$C:$U,11,FALSE)</f>
@@ -47602,7 +47600,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="388" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>2341</v>
       </c>
@@ -47706,7 +47704,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="389" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>2345</v>
       </c>
@@ -47795,7 +47793,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="390" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>2350</v>
       </c>
@@ -47899,7 +47897,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="391" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>2354</v>
       </c>
@@ -48003,7 +48001,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="392" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>2358</v>
       </c>
@@ -48107,7 +48105,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="393" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>2362</v>
       </c>
@@ -48211,7 +48209,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="394" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>2366</v>
       </c>
@@ -48300,7 +48298,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="395" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>2371</v>
       </c>
@@ -48389,7 +48387,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="396" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>2376</v>
       </c>
@@ -48492,7 +48490,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="397" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>2380</v>
       </c>
@@ -48596,7 +48594,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="398" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>2384</v>
       </c>
@@ -48700,7 +48698,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="399" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>2388</v>
       </c>
@@ -48804,7 +48802,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="400" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>2392</v>
       </c>
@@ -48908,7 +48906,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="401" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>2396</v>
       </c>
@@ -49012,7 +49010,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="402" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>2400</v>
       </c>
@@ -49101,7 +49099,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="403" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>2405</v>
       </c>
@@ -49190,7 +49188,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="404" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>2410</v>
       </c>
@@ -49276,7 +49274,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="405" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>2415</v>
       </c>
@@ -49339,9 +49337,8 @@
         <f>VLOOKUP($C405,Sheet2!$C:$U,9,FALSE)</f>
         <v>Exposure, Sensitivity</v>
       </c>
-      <c r="T405" t="str">
-        <f>VLOOKUP($C405,Sheet2!$C:$U,10,FALSE)</f>
-        <v>Mortality</v>
+      <c r="T405" t="s">
+        <v>107</v>
       </c>
       <c r="U405" t="str">
         <f>VLOOKUP($C405,Sheet2!$C:$U,11,FALSE)</f>
@@ -49379,7 +49376,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="406" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>2419</v>
       </c>
@@ -49468,7 +49465,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="407" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>2423</v>
       </c>
@@ -49572,7 +49569,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="408" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>2427</v>
       </c>
@@ -49661,7 +49658,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="409" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>2433</v>
       </c>
@@ -49747,7 +49744,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="410" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>2438</v>
       </c>
@@ -49836,7 +49833,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="411" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>2444</v>
       </c>
@@ -49922,7 +49919,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="412" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>2451</v>
       </c>
@@ -50011,7 +50008,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="413" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>2457</v>
       </c>
@@ -50115,7 +50112,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="414" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>2461</v>
       </c>
@@ -50219,7 +50216,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="415" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>2465</v>
       </c>
@@ -50323,7 +50320,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="416" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>2469</v>
       </c>
@@ -50427,7 +50424,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="417" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>2473</v>
       </c>
@@ -50531,7 +50528,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="418" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>2477</v>
       </c>
@@ -50620,7 +50617,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="419" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>2483</v>
       </c>
@@ -50724,7 +50721,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="420" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>2487</v>
       </c>
@@ -50828,7 +50825,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="421" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>2491</v>
       </c>
@@ -50917,7 +50914,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="422" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>2501</v>
       </c>
@@ -51006,7 +51003,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="423" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>2509</v>
       </c>
@@ -51109,7 +51106,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="424" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>2513</v>
       </c>
@@ -51213,7 +51210,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="425" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>2517</v>
       </c>
@@ -51317,7 +51314,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="426" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>2521</v>
       </c>
@@ -51406,7 +51403,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="427" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>2528</v>
       </c>
@@ -51492,7 +51489,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="428" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>2533</v>
       </c>
@@ -51595,7 +51592,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="429" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>2537</v>
       </c>
@@ -51684,7 +51681,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="430" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>2547</v>
       </c>
@@ -51773,7 +51770,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="431" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>2553</v>
       </c>
@@ -51862,7 +51859,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="432" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>2559</v>
       </c>
@@ -51965,7 +51962,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="433" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>2563</v>
       </c>
@@ -52054,7 +52051,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="434" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>2569</v>
       </c>
@@ -52143,7 +52140,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="435" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>2578</v>
       </c>
@@ -52202,7 +52199,7 @@
         <v>310</v>
       </c>
       <c r="T435" t="s">
-        <v>2586</v>
+        <v>107</v>
       </c>
       <c r="U435" t="s">
         <v>80</v>
@@ -52232,7 +52229,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="436" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>2587</v>
       </c>
@@ -52321,7 +52318,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="437" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>2595</v>
       </c>
@@ -52410,7 +52407,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="438" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>2601</v>
       </c>
@@ -52499,7 +52496,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="439" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>2606</v>
       </c>
@@ -52601,7 +52598,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="440" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>2610</v>
       </c>
@@ -52690,7 +52687,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="441" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>2616</v>
       </c>
@@ -52779,7 +52776,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="442" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>2625</v>
       </c>
@@ -52868,7 +52865,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="443" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>2630</v>
       </c>
@@ -52954,7 +52951,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="444" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>2635</v>
       </c>
@@ -53058,7 +53055,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="445" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>2639</v>
       </c>
@@ -53147,7 +53144,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="446" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>2645</v>
       </c>
@@ -53236,7 +53233,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="447" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>2657</v>
       </c>
@@ -53325,7 +53322,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="448" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>2661</v>
       </c>
@@ -53414,7 +53411,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="449" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>2671</v>
       </c>
@@ -53503,7 +53500,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="450" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>2676</v>
       </c>
@@ -53589,7 +53586,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="451" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>2681</v>
       </c>
@@ -53678,7 +53675,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="452" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>2687</v>
       </c>
@@ -53767,7 +53764,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="453" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>2693</v>
       </c>
@@ -53856,7 +53853,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="454" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>2704</v>
       </c>
@@ -53945,7 +53942,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="455" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>2710</v>
       </c>
@@ -54034,7 +54031,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="456" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>2716</v>
       </c>
@@ -54123,7 +54120,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="457" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>2723</v>
       </c>
@@ -54212,7 +54209,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="458" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>2729</v>
       </c>
@@ -54301,7 +54298,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="459" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>2735</v>
       </c>
@@ -54390,7 +54387,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="460" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>2744</v>
       </c>
@@ -54479,7 +54476,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="461" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>2752</v>
       </c>
@@ -54568,7 +54565,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="462" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>2758</v>
       </c>
@@ -54657,7 +54654,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="463" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>2764</v>
       </c>
@@ -54746,7 +54743,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="464" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>2770</v>
       </c>
@@ -54835,7 +54832,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="465" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>2776</v>
       </c>
@@ -54924,7 +54921,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="466" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>2785</v>
       </c>
@@ -55013,7 +55010,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="467" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>2793</v>
       </c>
@@ -55102,7 +55099,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="468" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>2799</v>
       </c>
@@ -55191,7 +55188,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="469" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>2807</v>
       </c>
@@ -55280,7 +55277,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="470" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>2813</v>
       </c>
@@ -55366,7 +55363,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="471" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>2819</v>
       </c>
@@ -55455,7 +55452,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="472" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>2825</v>
       </c>
@@ -55541,7 +55538,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="473" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>2830</v>
       </c>
@@ -55630,7 +55627,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="474" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>2836</v>
       </c>
@@ -55719,7 +55716,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="475" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>2841</v>
       </c>
@@ -55808,7 +55805,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="476" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>2848</v>
       </c>
@@ -55897,7 +55894,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="477" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>2858</v>
       </c>
@@ -55986,7 +55983,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="478" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>2864</v>
       </c>
@@ -56090,7 +56087,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="479" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>2868</v>
       </c>
@@ -56179,7 +56176,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="480" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>2874</v>
       </c>
@@ -56268,7 +56265,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="481" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>2880</v>
       </c>
@@ -56357,7 +56354,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="482" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>2886</v>
       </c>
@@ -56446,7 +56443,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="483" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>2892</v>
       </c>
@@ -56546,7 +56543,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="484" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>2896</v>
       </c>
@@ -56635,7 +56632,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="485" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>2902</v>
       </c>
@@ -56738,7 +56735,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="486" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>2906</v>
       </c>
@@ -56827,7 +56824,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="487" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>2916</v>
       </c>
@@ -56916,7 +56913,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="488" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>2922</v>
       </c>
@@ -57005,7 +57002,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="489" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>2933</v>
       </c>
@@ -57094,7 +57091,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="490" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>2939</v>
       </c>
@@ -57183,7 +57180,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="491" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>2945</v>
       </c>
@@ -57272,7 +57269,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="492" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>2953</v>
       </c>
@@ -57361,7 +57358,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="493" spans="1:29" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:29" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>2959</v>
       </c>
@@ -57450,7 +57447,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="494" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>2968</v>
       </c>
@@ -57539,7 +57536,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="495" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>2978</v>
       </c>
@@ -57628,7 +57625,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="496" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>2991</v>
       </c>
@@ -57717,7 +57714,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="497" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>2997</v>
       </c>
@@ -57806,7 +57803,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="498" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>3003</v>
       </c>
@@ -57895,7 +57892,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="499" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>3009</v>
       </c>
@@ -57984,7 +57981,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="500" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>3017</v>
       </c>
@@ -58073,7 +58070,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="501" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>3027</v>
       </c>
@@ -58162,7 +58159,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="502" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>3033</v>
       </c>
@@ -58251,7 +58248,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="503" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>3040</v>
       </c>
@@ -58340,7 +58337,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="504" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>3049</v>
       </c>
@@ -58429,7 +58426,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="505" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>3055</v>
       </c>
@@ -58518,7 +58515,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="506" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>3061</v>
       </c>
@@ -58607,7 +58604,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="507" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>3069</v>
       </c>
@@ -58696,7 +58693,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="508" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>3075</v>
       </c>
@@ -58785,7 +58782,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="509" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>3081</v>
       </c>
@@ -58889,7 +58886,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="510" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>3085</v>
       </c>
@@ -58978,7 +58975,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="511" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>3091</v>
       </c>
@@ -59067,7 +59064,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="512" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>3098</v>
       </c>
@@ -59156,7 +59153,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="513" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>3104</v>
       </c>
@@ -59245,7 +59242,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="514" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>3110</v>
       </c>
@@ -59334,7 +59331,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="515" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>3116</v>
       </c>
@@ -59423,7 +59420,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="516" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>3122</v>
       </c>
@@ -59512,7 +59509,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="517" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>3128</v>
       </c>
@@ -59614,7 +59611,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="518" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>3132</v>
       </c>
@@ -59717,7 +59714,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="519" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>3136</v>
       </c>
@@ -59806,7 +59803,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="520" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>3145</v>
       </c>
@@ -59895,7 +59892,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="521" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>3151</v>
       </c>
@@ -59984,7 +59981,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="522" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>3157</v>
       </c>
@@ -60073,7 +60070,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="523" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>3166</v>
       </c>
@@ -60162,7 +60159,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="524" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>3173</v>
       </c>
@@ -60251,7 +60248,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="525" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>3179</v>
       </c>
@@ -60340,7 +60337,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="526" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>3185</v>
       </c>
@@ -60429,7 +60426,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="527" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>3191</v>
       </c>
@@ -60518,7 +60515,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="528" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>3197</v>
       </c>
@@ -60607,7 +60604,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="529" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>3205</v>
       </c>
@@ -60696,7 +60693,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="530" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>3209</v>
       </c>
@@ -60785,7 +60782,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="531" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>3215</v>
       </c>
@@ -60874,7 +60871,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="532" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>3222</v>
       </c>
@@ -60963,7 +60960,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="533" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>3228</v>
       </c>
@@ -61052,7 +61049,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="534" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>3234</v>
       </c>
@@ -61141,7 +61138,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="535" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>3242</v>
       </c>
@@ -61245,7 +61242,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="536" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>3246</v>
       </c>
@@ -61334,7 +61331,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="537" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>3252</v>
       </c>
@@ -61423,7 +61420,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="538" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>3258</v>
       </c>
@@ -61512,7 +61509,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="539" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>3267</v>
       </c>
@@ -61601,7 +61598,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="540" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>3273</v>
       </c>
@@ -61690,7 +61687,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="541" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>3279</v>
       </c>
@@ -61794,7 +61791,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="542" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>3283</v>
       </c>
@@ -61883,7 +61880,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="543" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>3289</v>
       </c>
@@ -61972,7 +61969,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="544" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>3298</v>
       </c>
@@ -62061,7 +62058,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="545" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>3306</v>
       </c>
@@ -62150,7 +62147,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="546" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>3315</v>
       </c>
@@ -62239,7 +62236,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="547" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>3322</v>
       </c>
@@ -62328,7 +62325,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="548" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>3330</v>
       </c>
@@ -62417,7 +62414,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="549" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>3337</v>
       </c>
@@ -62506,7 +62503,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="550" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>3343</v>
       </c>
@@ -62595,7 +62592,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="551" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>3349</v>
       </c>
@@ -62684,7 +62681,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="552" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>3356</v>
       </c>
@@ -62773,7 +62770,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="553" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>3366</v>
       </c>
@@ -62862,7 +62859,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="554" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>3372</v>
       </c>
@@ -62966,7 +62963,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="555" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>3376</v>
       </c>
@@ -63055,7 +63052,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="556" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>3382</v>
       </c>
@@ -63144,7 +63141,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="557" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>3388</v>
       </c>
@@ -63233,7 +63230,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="558" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>3395</v>
       </c>
@@ -63322,7 +63319,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="559" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>3405</v>
       </c>
@@ -63411,7 +63408,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="560" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>3411</v>
       </c>
@@ -63500,7 +63497,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="561" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>3419</v>
       </c>
@@ -63589,7 +63586,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="562" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>3426</v>
       </c>
@@ -63678,7 +63675,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="563" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>3433</v>
       </c>
@@ -63767,7 +63764,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="564" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>3441</v>
       </c>
@@ -63856,7 +63853,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="565" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>3447</v>
       </c>
@@ -63945,7 +63942,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="566" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>3453</v>
       </c>
@@ -64034,7 +64031,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="567" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>3459</v>
       </c>
@@ -64123,7 +64120,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="568" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>3467</v>
       </c>
@@ -64212,7 +64209,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="569" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>3473</v>
       </c>
@@ -64301,7 +64298,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="570" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>3479</v>
       </c>
@@ -64390,7 +64387,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="571" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>3486</v>
       </c>
@@ -64479,7 +64476,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="572" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>3492</v>
       </c>
@@ -64568,7 +64565,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="573" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>3502</v>
       </c>
@@ -64657,7 +64654,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="574" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>3508</v>
       </c>
@@ -64746,7 +64743,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="575" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>3517</v>
       </c>
@@ -64835,7 +64832,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="576" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>3523</v>
       </c>
@@ -64924,7 +64921,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="577" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>3530</v>
       </c>
@@ -65013,7 +65010,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="578" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>3536</v>
       </c>
@@ -65102,7 +65099,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="579" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>3542</v>
       </c>
@@ -65191,7 +65188,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="580" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>3548</v>
       </c>
@@ -65280,7 +65277,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="581" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>3556</v>
       </c>
@@ -65369,7 +65366,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="582" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>3562</v>
       </c>
@@ -65458,7 +65455,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="583" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>3570</v>
       </c>
@@ -65547,7 +65544,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="584" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>3576</v>
       </c>
@@ -65636,7 +65633,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="585" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>3584</v>
       </c>
@@ -65725,7 +65722,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="586" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>3590</v>
       </c>
@@ -65814,7 +65811,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="587" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>3597</v>
       </c>
@@ -65903,7 +65900,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="588" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>3606</v>
       </c>
@@ -65992,7 +65989,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="589" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>3613</v>
       </c>
@@ -66081,7 +66078,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="590" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>3623</v>
       </c>
@@ -66170,7 +66167,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="591" spans="1:29" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:29" ht="390" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>3630</v>
       </c>
@@ -66259,7 +66256,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="592" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>3638</v>
       </c>
@@ -66348,7 +66345,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="593" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>3644</v>
       </c>
@@ -66437,7 +66434,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="594" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>3653</v>
       </c>
@@ -66526,7 +66523,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="595" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>3658</v>
       </c>
@@ -66615,7 +66612,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="596" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>3663</v>
       </c>
@@ -66704,7 +66701,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="597" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>3671</v>
       </c>
@@ -66793,7 +66790,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="598" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>3679</v>
       </c>
@@ -66882,7 +66879,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="599" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>3684</v>
       </c>
@@ -66971,7 +66968,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="600" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>3692</v>
       </c>
@@ -67062,11 +67059,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AC600" xr:uid="{6CE7EB28-56C6-4661-A107-FC24E54E6505}">
-    <filterColumn colId="16">
+    <filterColumn colId="19">
       <filters>
-        <filter val="Flag for review"/>
-        <filter val="No"/>
-        <filter val="None"/>
+        <filter val="mortalty"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -67082,9 +67077,9 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -67149,7 +67144,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -67214,7 +67209,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -67279,7 +67274,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -67344,7 +67339,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -67409,7 +67404,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -67474,7 +67469,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>88</v>
       </c>
@@ -67539,7 +67534,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -67604,7 +67599,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>96</v>
       </c>
@@ -67669,7 +67664,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -67734,7 +67729,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>119</v>
       </c>
@@ -67799,7 +67794,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>123</v>
       </c>
@@ -67864,7 +67859,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>135</v>
       </c>
@@ -67929,7 +67924,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>139</v>
       </c>
@@ -67994,7 +67989,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>143</v>
       </c>
@@ -68059,7 +68054,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>147</v>
       </c>
@@ -68124,7 +68119,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>151</v>
       </c>
@@ -68189,7 +68184,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>155</v>
       </c>
@@ -68254,7 +68249,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>193</v>
       </c>
@@ -68319,7 +68314,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>207</v>
       </c>
@@ -68384,7 +68379,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>211</v>
       </c>
@@ -68449,7 +68444,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>227</v>
       </c>
@@ -68514,7 +68509,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>246</v>
       </c>
@@ -68579,7 +68574,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>250</v>
       </c>
@@ -68644,7 +68639,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>274</v>
       </c>
@@ -68709,7 +68704,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>288</v>
       </c>
@@ -68774,7 +68769,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>297</v>
       </c>
@@ -68839,7 +68834,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>318</v>
       </c>
@@ -68904,7 +68899,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>330</v>
       </c>
@@ -68969,7 +68964,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>334</v>
       </c>
@@ -69034,7 +69029,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>340</v>
       </c>
@@ -69099,7 +69094,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>351</v>
       </c>
@@ -69164,7 +69159,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>368</v>
       </c>
@@ -69229,7 +69224,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>378</v>
       </c>
@@ -69294,7 +69289,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>384</v>
       </c>
@@ -69359,7 +69354,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>400</v>
       </c>
@@ -69424,7 +69419,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>425</v>
       </c>
@@ -69489,7 +69484,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>431</v>
       </c>
@@ -69554,7 +69549,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>453</v>
       </c>
@@ -69619,7 +69614,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>475</v>
       </c>
@@ -69684,7 +69679,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>481</v>
       </c>
@@ -69749,7 +69744,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>493</v>
       </c>
@@ -69814,7 +69809,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>497</v>
       </c>
@@ -69879,7 +69874,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>513</v>
       </c>
@@ -69944,7 +69939,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>522</v>
       </c>
@@ -70009,7 +70004,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>526</v>
       </c>
@@ -70074,7 +70069,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>532</v>
       </c>
@@ -70139,7 +70134,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>544</v>
       </c>
@@ -70204,7 +70199,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>559</v>
       </c>
@@ -70269,7 +70264,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>573</v>
       </c>
@@ -70334,7 +70329,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>577</v>
       </c>
@@ -70399,7 +70394,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>583</v>
       </c>
@@ -70464,7 +70459,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>589</v>
       </c>
@@ -70529,7 +70524,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>595</v>
       </c>
@@ -70594,7 +70589,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>615</v>
       </c>
@@ -70659,7 +70654,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>621</v>
       </c>
@@ -70724,7 +70719,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>633</v>
       </c>
@@ -70789,7 +70784,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>639</v>
       </c>
@@ -70854,7 +70849,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>643</v>
       </c>
@@ -70919,7 +70914,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>661</v>
       </c>
@@ -70984,7 +70979,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>673</v>
       </c>
@@ -71049,7 +71044,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>687</v>
       </c>
@@ -71114,7 +71109,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>691</v>
       </c>
@@ -71179,7 +71174,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>715</v>
       </c>
@@ -71244,7 +71239,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>727</v>
       </c>
@@ -71309,7 +71304,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>735</v>
       </c>
@@ -71374,7 +71369,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>762</v>
       </c>
@@ -71439,7 +71434,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>775</v>
       </c>
@@ -71504,7 +71499,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>790</v>
       </c>
@@ -71569,7 +71564,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>796</v>
       </c>
@@ -71634,7 +71629,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>802</v>
       </c>
@@ -71699,7 +71694,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>814</v>
       </c>
@@ -71764,7 +71759,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>820</v>
       </c>
@@ -71829,7 +71824,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>832</v>
       </c>
@@ -71894,7 +71889,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>850</v>
       </c>
@@ -71959,7 +71954,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>876</v>
       </c>
@@ -72024,7 +72019,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>894</v>
       </c>
@@ -72089,7 +72084,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>906</v>
       </c>
@@ -72154,7 +72149,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>912</v>
       </c>
@@ -72219,7 +72214,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>925</v>
       </c>
@@ -72284,7 +72279,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>931</v>
       </c>
@@ -72349,7 +72344,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>937</v>
       </c>
@@ -72414,7 +72409,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>951</v>
       </c>
@@ -72479,7 +72474,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>959</v>
       </c>
@@ -72544,7 +72539,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>971</v>
       </c>
@@ -72609,7 +72604,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>983</v>
       </c>
@@ -72674,7 +72669,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>989</v>
       </c>
@@ -72739,7 +72734,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>995</v>
       </c>
@@ -72804,7 +72799,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1001</v>
       </c>
@@ -72869,7 +72864,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>1015</v>
       </c>
@@ -72934,7 +72929,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>1027</v>
       </c>
@@ -72999,7 +72994,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>1033</v>
       </c>
@@ -73064,7 +73059,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>1039</v>
       </c>
@@ -73129,7 +73124,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>1050</v>
       </c>
@@ -73194,7 +73189,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>1055</v>
       </c>
@@ -73259,7 +73254,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>1068</v>
       </c>
@@ -73324,7 +73319,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>1073</v>
       </c>
@@ -73389,7 +73384,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>1077</v>
       </c>
@@ -73454,7 +73449,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>1091</v>
       </c>
@@ -73519,7 +73514,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>1095</v>
       </c>
@@ -73584,7 +73579,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="101" spans="1:21" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:21" ht="18" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>1099</v>
       </c>
@@ -73649,7 +73644,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>1103</v>
       </c>
@@ -73714,7 +73709,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>1123</v>
       </c>
@@ -73779,7 +73774,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>1132</v>
       </c>
@@ -73844,7 +73839,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>1136</v>
       </c>
@@ -73909,7 +73904,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>1140</v>
       </c>
@@ -73974,7 +73969,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>1151</v>
       </c>
@@ -74039,7 +74034,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>1155</v>
       </c>
@@ -74104,7 +74099,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>1159</v>
       </c>
@@ -74169,7 +74164,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>1163</v>
       </c>
@@ -74234,7 +74229,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>1178</v>
       </c>
@@ -74299,7 +74294,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>1187</v>
       </c>
@@ -74364,7 +74359,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>1196</v>
       </c>
@@ -74429,7 +74424,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>1202</v>
       </c>
@@ -74494,7 +74489,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>1210</v>
       </c>
@@ -74559,7 +74554,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>1214</v>
       </c>
@@ -74624,7 +74619,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>1239</v>
       </c>
@@ -74689,7 +74684,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>1255</v>
       </c>
@@ -74754,7 +74749,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>1259</v>
       </c>
@@ -74819,7 +74814,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>1277</v>
       </c>
@@ -74884,7 +74879,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>1297</v>
       </c>
@@ -74949,7 +74944,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>1323</v>
       </c>
@@ -75014,7 +75009,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>1327</v>
       </c>
@@ -75079,7 +75074,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>1356</v>
       </c>
@@ -75144,7 +75139,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>1362</v>
       </c>
@@ -75209,7 +75204,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>1374</v>
       </c>
@@ -75274,7 +75269,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>1380</v>
       </c>
@@ -75339,7 +75334,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>1402</v>
       </c>
@@ -75404,7 +75399,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>1423</v>
       </c>
@@ -75469,7 +75464,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>1446</v>
       </c>
@@ -75534,7 +75529,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>1455</v>
       </c>
@@ -75599,7 +75594,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>1472</v>
       </c>
@@ -75664,7 +75659,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>1494</v>
       </c>
@@ -75729,7 +75724,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>1506</v>
       </c>
@@ -75794,7 +75789,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>1518</v>
       </c>
@@ -75859,7 +75854,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>1526</v>
       </c>
@@ -75924,7 +75919,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>1558</v>
       </c>
@@ -75989,7 +75984,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>1576</v>
       </c>
@@ -76054,7 +76049,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>1585</v>
       </c>
@@ -76119,7 +76114,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>1591</v>
       </c>
@@ -76184,7 +76179,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>1613</v>
       </c>
@@ -76249,7 +76244,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>1619</v>
       </c>
@@ -76314,7 +76309,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>1625</v>
       </c>
@@ -76379,7 +76374,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>1650</v>
       </c>
@@ -76444,7 +76439,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>1656</v>
       </c>
@@ -76509,7 +76504,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>1662</v>
       </c>
@@ -76574,7 +76569,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>1683</v>
       </c>
@@ -76639,7 +76634,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>1701</v>
       </c>
@@ -76704,7 +76699,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>1713</v>
       </c>
@@ -76769,7 +76764,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>1719</v>
       </c>
@@ -76834,7 +76829,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>1762</v>
       </c>
@@ -76899,7 +76894,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>1768</v>
       </c>
@@ -76964,7 +76959,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>1780</v>
       </c>
@@ -77029,7 +77024,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>1786</v>
       </c>
@@ -77094,7 +77089,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>1793</v>
       </c>
@@ -77159,7 +77154,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>1802</v>
       </c>
@@ -77224,7 +77219,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>1810</v>
       </c>
@@ -77289,7 +77284,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>1837</v>
       </c>
@@ -77354,7 +77349,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>1856</v>
       </c>
@@ -77419,7 +77414,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>1869</v>
       </c>
@@ -77484,7 +77479,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>1875</v>
       </c>
@@ -77549,7 +77544,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>1904</v>
       </c>
@@ -77614,7 +77609,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>1909</v>
       </c>
@@ -77679,7 +77674,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>1917</v>
       </c>
@@ -77744,7 +77739,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>1922</v>
       </c>
@@ -77809,7 +77804,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>1927</v>
       </c>
@@ -77874,7 +77869,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>1937</v>
       </c>
@@ -77939,7 +77934,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>1941</v>
       </c>
@@ -78004,7 +77999,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>1945</v>
       </c>
@@ -78069,7 +78064,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>1949</v>
       </c>
@@ -78134,7 +78129,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>1966</v>
       </c>
@@ -78199,7 +78194,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>1984</v>
       </c>
@@ -78264,7 +78259,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>1994</v>
       </c>
@@ -78329,7 +78324,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>2000</v>
       </c>
@@ -78394,7 +78389,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>2004</v>
       </c>
@@ -78459,7 +78454,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>2008</v>
       </c>
@@ -78524,7 +78519,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>2015</v>
       </c>
@@ -78589,7 +78584,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>2029</v>
       </c>
@@ -78654,7 +78649,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>2038</v>
       </c>
@@ -78719,7 +78714,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>2066</v>
       </c>
@@ -78784,7 +78779,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>2072</v>
       </c>
@@ -78849,7 +78844,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>2084</v>
       </c>
@@ -78914,7 +78909,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>2101</v>
       </c>
@@ -78979,7 +78974,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>2105</v>
       </c>
@@ -79044,7 +79039,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>2117</v>
       </c>
@@ -79109,7 +79104,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>2123</v>
       </c>
@@ -79174,7 +79169,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>2129</v>
       </c>
@@ -79239,7 +79234,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>2145</v>
       </c>
@@ -79304,7 +79299,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>2163</v>
       </c>
@@ -79369,7 +79364,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>2199</v>
       </c>
@@ -79434,7 +79429,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>2214</v>
       </c>
@@ -79499,7 +79494,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>2220</v>
       </c>
@@ -79564,7 +79559,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>2235</v>
       </c>
@@ -79629,7 +79624,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>2241</v>
       </c>
@@ -79694,7 +79689,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>2247</v>
       </c>
@@ -79759,7 +79754,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>2255</v>
       </c>
@@ -79824,7 +79819,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>2277</v>
       </c>
@@ -79889,7 +79884,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>2282</v>
       </c>
@@ -79954,7 +79949,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>2316</v>
       </c>
@@ -80019,7 +80014,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>2320</v>
       </c>
@@ -80084,7 +80079,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>2324</v>
       </c>
@@ -80149,7 +80144,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>2337</v>
       </c>
@@ -80214,7 +80209,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>2341</v>
       </c>
@@ -80279,7 +80274,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>2350</v>
       </c>
@@ -80344,7 +80339,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>2354</v>
       </c>
@@ -80409,7 +80404,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>2358</v>
       </c>
@@ -80474,7 +80469,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>2362</v>
       </c>
@@ -80539,7 +80534,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>2376</v>
       </c>
@@ -80604,7 +80599,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>2380</v>
       </c>
@@ -80669,7 +80664,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>2384</v>
       </c>
@@ -80734,7 +80729,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>2388</v>
       </c>
@@ -80799,7 +80794,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>2392</v>
       </c>
@@ -80864,7 +80859,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>2396</v>
       </c>
@@ -80929,7 +80924,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>2415</v>
       </c>
@@ -80994,7 +80989,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>2423</v>
       </c>
@@ -81059,7 +81054,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>2457</v>
       </c>
@@ -81124,7 +81119,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>2461</v>
       </c>
@@ -81189,7 +81184,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>2465</v>
       </c>
@@ -81254,7 +81249,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>2469</v>
       </c>
@@ -81319,7 +81314,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>2473</v>
       </c>
@@ -81384,7 +81379,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>2477</v>
       </c>
@@ -81449,7 +81444,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>2483</v>
       </c>
@@ -81514,7 +81509,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>2487</v>
       </c>
@@ -81579,7 +81574,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>2491</v>
       </c>
@@ -81644,7 +81639,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="225" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>2509</v>
       </c>
@@ -81709,7 +81704,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="226" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>2513</v>
       </c>
@@ -81774,7 +81769,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="227" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>2517</v>
       </c>
@@ -81839,7 +81834,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="228" spans="1:21" ht="18" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>2521</v>
       </c>
@@ -81904,7 +81899,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>2533</v>
       </c>
@@ -81969,7 +81964,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>2537</v>
       </c>
@@ -82034,7 +82029,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>2559</v>
       </c>
@@ -82099,7 +82094,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>2563</v>
       </c>
@@ -82164,7 +82159,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>2606</v>
       </c>
@@ -82229,7 +82224,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>2635</v>
       </c>
@@ -82294,7 +82289,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>2693</v>
       </c>
@@ -82359,7 +82354,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>2710</v>
       </c>
@@ -82424,7 +82419,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>2716</v>
       </c>
@@ -82489,7 +82484,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>2735</v>
       </c>
@@ -82554,7 +82549,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>2770</v>
       </c>
@@ -82619,7 +82614,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>2776</v>
       </c>
@@ -82684,7 +82679,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>2799</v>
       </c>
@@ -82749,7 +82744,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>2841</v>
       </c>
@@ -82814,7 +82809,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>2864</v>
       </c>
@@ -82879,7 +82874,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>2868</v>
       </c>
@@ -82944,7 +82939,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>2874</v>
       </c>
@@ -83009,7 +83004,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>2886</v>
       </c>
@@ -83074,7 +83069,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>2892</v>
       </c>
@@ -83139,7 +83134,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>2896</v>
       </c>
@@ -83204,7 +83199,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>2902</v>
       </c>
@@ -83269,7 +83264,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>2906</v>
       </c>
@@ -83334,7 +83329,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>2916</v>
       </c>
@@ -83399,7 +83394,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>2922</v>
       </c>
@@ -83464,7 +83459,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>2945</v>
       </c>
@@ -83529,7 +83524,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>2953</v>
       </c>
@@ -83594,7 +83589,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>2997</v>
       </c>
@@ -83659,7 +83654,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>3009</v>
       </c>
@@ -83724,7 +83719,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>3017</v>
       </c>
@@ -83789,7 +83784,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>3027</v>
       </c>
@@ -83854,7 +83849,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>3040</v>
       </c>
@@ -83919,7 +83914,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>3049</v>
       </c>
@@ -83984,7 +83979,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>3055</v>
       </c>
@@ -84049,7 +84044,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>3069</v>
       </c>
@@ -84114,7 +84109,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>3081</v>
       </c>
@@ -84179,7 +84174,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>3091</v>
       </c>
@@ -84244,7 +84239,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>3098</v>
       </c>
@@ -84309,7 +84304,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>3104</v>
       </c>
@@ -84374,7 +84369,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>3110</v>
       </c>
@@ -84439,7 +84434,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>3122</v>
       </c>
@@ -84504,7 +84499,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>3128</v>
       </c>
@@ -84569,7 +84564,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>3132</v>
       </c>
@@ -84634,7 +84629,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>3136</v>
       </c>
@@ -84699,7 +84694,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>3157</v>
       </c>
@@ -84764,7 +84759,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>3191</v>
       </c>
@@ -84829,7 +84824,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>3197</v>
       </c>
@@ -84894,7 +84889,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>3215</v>
       </c>
@@ -84959,7 +84954,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>3222</v>
       </c>
@@ -85024,7 +85019,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>3234</v>
       </c>
@@ -85089,7 +85084,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>3242</v>
       </c>
@@ -85154,7 +85149,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>3246</v>
       </c>
@@ -85219,7 +85214,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>3252</v>
       </c>
@@ -85284,7 +85279,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>3258</v>
       </c>
@@ -85349,7 +85344,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>3267</v>
       </c>
@@ -85414,7 +85409,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>3279</v>
       </c>
@@ -85479,7 +85474,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>3283</v>
       </c>
@@ -85544,7 +85539,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>3298</v>
       </c>
@@ -85609,7 +85604,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>3322</v>
       </c>
@@ -85674,7 +85669,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>3330</v>
       </c>
@@ -85739,7 +85734,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>3337</v>
       </c>
@@ -85804,7 +85799,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>3356</v>
       </c>
@@ -85869,7 +85864,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>3372</v>
       </c>
@@ -85934,7 +85929,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>3376</v>
       </c>
@@ -85999,7 +85994,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>3382</v>
       </c>
@@ -86064,7 +86059,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>3388</v>
       </c>
@@ -86129,7 +86124,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>3395</v>
       </c>
@@ -86194,7 +86189,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>3426</v>
       </c>
@@ -86259,7 +86254,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>3433</v>
       </c>
@@ -86324,7 +86319,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>3441</v>
       </c>
@@ -86389,7 +86384,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>3467</v>
       </c>
@@ -86454,7 +86449,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>3473</v>
       </c>
@@ -86519,7 +86514,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>3479</v>
       </c>
@@ -86584,7 +86579,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>3508</v>
       </c>
@@ -86649,7 +86644,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>3517</v>
       </c>
@@ -86714,7 +86709,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>3523</v>
       </c>
@@ -86779,7 +86774,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>3556</v>
       </c>
@@ -86844,7 +86839,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>3576</v>
       </c>
@@ -86909,7 +86904,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>3584</v>
       </c>
@@ -86974,7 +86969,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>3590</v>
       </c>
@@ -87039,7 +87034,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>3606</v>
       </c>
@@ -87104,7 +87099,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>3623</v>
       </c>
@@ -87169,7 +87164,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="310" spans="1:21" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:21" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>3630</v>
       </c>
@@ -87234,7 +87229,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>3653</v>
       </c>
@@ -87299,7 +87294,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>3658</v>
       </c>
@@ -87364,7 +87359,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>3663</v>
       </c>
@@ -87429,7 +87424,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>3671</v>
       </c>
@@ -87494,7 +87489,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>3684</v>
       </c>
@@ -87559,7 +87554,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>3692</v>
       </c>

--- a/R/DATA-RAW/papers2.xlsx
+++ b/R/DATA-RAW/papers2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbrky\Desktop\School\Aging and Heat\cc-aging-review\R\DATA-RAW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fsu-my.sharepoint.com/personal/meh03c_fsu_edu/Documents/MANUSCRIPTS/WORKING/cc-aging-review/R/DATA-RAW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE70B62C-02DA-415C-B7A9-E1D7251D3D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{DE70B62C-02DA-415C-B7A9-E1D7251D3D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A07B07B-9CB6-403C-A8A1-4F7A52DD3AB4}"/>
   <bookViews>
-    <workbookView xWindow="14303" yWindow="4313" windowWidth="20715" windowHeight="13275" tabRatio="184" xr2:uid="{0474FF3C-F5F4-4032-A5CB-9951DE8E4272}"/>
+    <workbookView xWindow="30615" yWindow="690" windowWidth="25635" windowHeight="14295" tabRatio="184" xr2:uid="{0474FF3C-F5F4-4032-A5CB-9951DE8E4272}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19857" uniqueCount="3809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20033" uniqueCount="3839">
   <si>
     <t>AU</t>
   </si>
@@ -11801,6 +11801,96 @@
   </si>
   <si>
     <t>leisure activities</t>
+  </si>
+  <si>
+    <t>Bontemps, Jean-Daniel; Herve, Jean-Christophe; Dhote, Jean-Francois</t>
+  </si>
+  <si>
+    <t>Long-Term Changes in Forest Productivity: A Consistent Assessment in Even-Aged Stands</t>
+  </si>
+  <si>
+    <t>WOS:000272691000008</t>
+  </si>
+  <si>
+    <t>North, M; Hurteau, M; Fiegener, R; Barbour, M</t>
+  </si>
+  <si>
+    <t>Influence of fire and El Nino on tree recruitment varies by species in Sierran mixed conifer</t>
+  </si>
+  <si>
+    <t>WOS:000229764500002</t>
+  </si>
+  <si>
+    <t>Gower, ST; Krankina, O; Olson, RJ; Apps, M; Linder, S; Wang, C</t>
+  </si>
+  <si>
+    <t>Net primary production and carbon allocation patterns of boreal forest ecosystems</t>
+  </si>
+  <si>
+    <t>WOS:000171417700012</t>
+  </si>
+  <si>
+    <t>Greenhill, J. A.; Walker, J.; Playford, D.</t>
+  </si>
+  <si>
+    <t>Outcomes of Australian rural clinical schools: a decade of success building the rural medical workforce through the education and training continuum</t>
+  </si>
+  <si>
+    <t>WOS:000365601800005</t>
+  </si>
+  <si>
+    <t>Murray, Dennis L.; Cox, Eric W.; Ballard, Warren B.; Whitlaw, Heather A.; Lenarz, Mark S.; Custer, Thomas W.; Barnett, Terri; Fuller, Todd K.</t>
+  </si>
+  <si>
+    <t>Pathogens, nutritional deficiency, and climate influences on a declining moose population</t>
+  </si>
+  <si>
+    <t>WOS:000244136000001</t>
+  </si>
+  <si>
+    <t>Hickman, Caroline; Marks, Elizabeth; Pihkala, Panu; Clayton, Susan; Lewandowski, R. Eric; Mayall, Elouise E.; Wray, Britt; Mellor, Catriona; van Susteren, Lise</t>
+  </si>
+  <si>
+    <t>Climate anxiety in children and young people and their beliefs about government responses to climate change: a global survey</t>
+  </si>
+  <si>
+    <t>WOS:000730800800010</t>
+  </si>
+  <si>
+    <t>Jay, Ollie; Capon, Anthony; Berry, Peter; Broderick, Carolyn; de Dear, Richard; Havenith, George; Honda, Yasushi; Kovats, R. Sari; Ma, Wei; Malik, Arunima; Morris, Nathan B.; Nybo, Lars; Seneviratne, Sonia I.; Vanos, Jennifer; Ebi, Kristie L.</t>
+  </si>
+  <si>
+    <t>Reducing the health effects of hot weather and heat extremes: from personal cooling strategies to green cities</t>
+  </si>
+  <si>
+    <t>WOS:000687280700027</t>
+  </si>
+  <si>
+    <t>Hellden, Daniel; Andersson, Camilla; Nilsson, Maria; Ebi, Kristie L.; Friberg, Peter; Alfven, Tobias</t>
+  </si>
+  <si>
+    <t>Climate change and child health: a scoping review and an expanded conceptual framework</t>
+  </si>
+  <si>
+    <t>WOS:000629882600010</t>
+  </si>
+  <si>
+    <t>Deals with Forests</t>
+  </si>
+  <si>
+    <t>About mooses</t>
+  </si>
+  <si>
+    <t>About children</t>
+  </si>
+  <si>
+    <t>About rural clinical schools</t>
+  </si>
+  <si>
+    <t>Primarily about exreme heat and air conditioning. It’s a review article</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We summarise the benefits (eg, effectiveness) and limitations of each identified cooling strategy, and recommend optimal interventions for settings such as aged care homes, slums, workplaces, mass gatherings, refugee camps, and playing sport. </t>
   </si>
 </sst>
 </file>
@@ -12207,10 +12297,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE7EB28-56C6-4661-A107-FC24E54E6505}">
-  <dimension ref="A1:AC600"/>
+  <dimension ref="A1:AC608"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="R246" sqref="R246"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A591" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA607" sqref="AA607"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -67044,6 +67135,750 @@
         <v>41</v>
       </c>
     </row>
+    <row r="601" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>3809</v>
+      </c>
+      <c r="B601" t="s">
+        <v>3810</v>
+      </c>
+      <c r="C601" t="s">
+        <v>33</v>
+      </c>
+      <c r="D601">
+        <v>2009</v>
+      </c>
+      <c r="E601">
+        <v>72</v>
+      </c>
+      <c r="F601" t="s">
+        <v>3811</v>
+      </c>
+      <c r="G601" t="s">
+        <v>126</v>
+      </c>
+      <c r="H601" t="s">
+        <v>36</v>
+      </c>
+      <c r="I601" t="s">
+        <v>33</v>
+      </c>
+      <c r="J601" t="str">
+        <f>B601</f>
+        <v>Long-Term Changes in Forest Productivity: A Consistent Assessment in Even-Aged Stands</v>
+      </c>
+      <c r="K601" t="str">
+        <f>A601</f>
+        <v>Bontemps, Jean-Daniel; Herve, Jean-Christophe; Dhote, Jean-Francois</v>
+      </c>
+      <c r="L601">
+        <f>E601</f>
+        <v>72</v>
+      </c>
+      <c r="M601">
+        <f>L601/(2023-D601)</f>
+        <v>5.1428571428571432</v>
+      </c>
+      <c r="N601" t="s">
+        <v>34</v>
+      </c>
+      <c r="O601" t="s">
+        <v>3833</v>
+      </c>
+      <c r="P601" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q601" t="s">
+        <v>33</v>
+      </c>
+      <c r="R601" t="s">
+        <v>33</v>
+      </c>
+      <c r="S601" t="s">
+        <v>33</v>
+      </c>
+      <c r="T601" t="s">
+        <v>33</v>
+      </c>
+      <c r="U601" t="s">
+        <v>33</v>
+      </c>
+      <c r="V601" t="s">
+        <v>33</v>
+      </c>
+      <c r="W601" t="s">
+        <v>33</v>
+      </c>
+      <c r="X601" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y601" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z601" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA601" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB601">
+        <v>0</v>
+      </c>
+      <c r="AC601" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="602" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>3812</v>
+      </c>
+      <c r="B602" t="s">
+        <v>3813</v>
+      </c>
+      <c r="C602" t="s">
+        <v>33</v>
+      </c>
+      <c r="D602">
+        <v>2005</v>
+      </c>
+      <c r="E602">
+        <v>80</v>
+      </c>
+      <c r="F602" t="s">
+        <v>3814</v>
+      </c>
+      <c r="G602" t="s">
+        <v>126</v>
+      </c>
+      <c r="H602" t="s">
+        <v>36</v>
+      </c>
+      <c r="I602" t="s">
+        <v>33</v>
+      </c>
+      <c r="J602" t="str">
+        <f t="shared" ref="J602:J608" si="0">B602</f>
+        <v>Influence of fire and El Nino on tree recruitment varies by species in Sierran mixed conifer</v>
+      </c>
+      <c r="K602" t="str">
+        <f t="shared" ref="K602:K608" si="1">A602</f>
+        <v>North, M; Hurteau, M; Fiegener, R; Barbour, M</v>
+      </c>
+      <c r="L602">
+        <f t="shared" ref="L602:L608" si="2">E602</f>
+        <v>80</v>
+      </c>
+      <c r="M602">
+        <f t="shared" ref="M602:M608" si="3">L602/(2023-D602)</f>
+        <v>4.4444444444444446</v>
+      </c>
+      <c r="N602" t="s">
+        <v>34</v>
+      </c>
+      <c r="O602" t="s">
+        <v>3833</v>
+      </c>
+      <c r="P602" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q602" t="s">
+        <v>33</v>
+      </c>
+      <c r="R602" t="s">
+        <v>33</v>
+      </c>
+      <c r="S602" t="s">
+        <v>33</v>
+      </c>
+      <c r="T602" t="s">
+        <v>33</v>
+      </c>
+      <c r="U602" t="s">
+        <v>33</v>
+      </c>
+      <c r="V602" t="s">
+        <v>33</v>
+      </c>
+      <c r="W602" t="s">
+        <v>33</v>
+      </c>
+      <c r="X602" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y602" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z602" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA602" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB602">
+        <v>0</v>
+      </c>
+      <c r="AC602" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="603" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>3815</v>
+      </c>
+      <c r="B603" t="s">
+        <v>3816</v>
+      </c>
+      <c r="C603" t="s">
+        <v>33</v>
+      </c>
+      <c r="D603">
+        <v>2001</v>
+      </c>
+      <c r="E603">
+        <v>326</v>
+      </c>
+      <c r="F603" t="s">
+        <v>3817</v>
+      </c>
+      <c r="G603" t="s">
+        <v>126</v>
+      </c>
+      <c r="H603" t="s">
+        <v>36</v>
+      </c>
+      <c r="I603" t="s">
+        <v>33</v>
+      </c>
+      <c r="J603" t="str">
+        <f t="shared" si="0"/>
+        <v>Net primary production and carbon allocation patterns of boreal forest ecosystems</v>
+      </c>
+      <c r="K603" t="str">
+        <f t="shared" si="1"/>
+        <v>Gower, ST; Krankina, O; Olson, RJ; Apps, M; Linder, S; Wang, C</v>
+      </c>
+      <c r="L603">
+        <f t="shared" si="2"/>
+        <v>326</v>
+      </c>
+      <c r="M603">
+        <f t="shared" si="3"/>
+        <v>14.818181818181818</v>
+      </c>
+      <c r="N603" t="s">
+        <v>34</v>
+      </c>
+      <c r="O603" t="s">
+        <v>3833</v>
+      </c>
+      <c r="P603" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q603" t="s">
+        <v>33</v>
+      </c>
+      <c r="R603" t="s">
+        <v>33</v>
+      </c>
+      <c r="S603" t="s">
+        <v>33</v>
+      </c>
+      <c r="T603" t="s">
+        <v>33</v>
+      </c>
+      <c r="U603" t="s">
+        <v>33</v>
+      </c>
+      <c r="V603" t="s">
+        <v>33</v>
+      </c>
+      <c r="W603" t="s">
+        <v>33</v>
+      </c>
+      <c r="X603" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y603" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z603" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA603" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB603">
+        <v>0</v>
+      </c>
+      <c r="AC603" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="604" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>3818</v>
+      </c>
+      <c r="B604" t="s">
+        <v>3819</v>
+      </c>
+      <c r="C604" t="s">
+        <v>33</v>
+      </c>
+      <c r="D604">
+        <v>2015</v>
+      </c>
+      <c r="E604">
+        <v>53</v>
+      </c>
+      <c r="F604" t="s">
+        <v>3820</v>
+      </c>
+      <c r="G604" t="s">
+        <v>126</v>
+      </c>
+      <c r="H604" t="s">
+        <v>36</v>
+      </c>
+      <c r="I604" t="s">
+        <v>33</v>
+      </c>
+      <c r="J604" t="str">
+        <f t="shared" si="0"/>
+        <v>Outcomes of Australian rural clinical schools: a decade of success building the rural medical workforce through the education and training continuum</v>
+      </c>
+      <c r="K604" t="str">
+        <f t="shared" si="1"/>
+        <v>Greenhill, J. A.; Walker, J.; Playford, D.</v>
+      </c>
+      <c r="L604">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="M604">
+        <f t="shared" si="3"/>
+        <v>6.625</v>
+      </c>
+      <c r="N604" t="s">
+        <v>34</v>
+      </c>
+      <c r="O604" t="s">
+        <v>3836</v>
+      </c>
+      <c r="P604" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q604" t="s">
+        <v>33</v>
+      </c>
+      <c r="R604" t="s">
+        <v>33</v>
+      </c>
+      <c r="S604" t="s">
+        <v>33</v>
+      </c>
+      <c r="T604" t="s">
+        <v>33</v>
+      </c>
+      <c r="U604" t="s">
+        <v>33</v>
+      </c>
+      <c r="V604" t="s">
+        <v>33</v>
+      </c>
+      <c r="W604" t="s">
+        <v>33</v>
+      </c>
+      <c r="X604" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y604" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z604" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA604" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB604">
+        <v>0</v>
+      </c>
+      <c r="AC604" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="605" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>3821</v>
+      </c>
+      <c r="B605" t="s">
+        <v>3822</v>
+      </c>
+      <c r="C605" t="s">
+        <v>33</v>
+      </c>
+      <c r="D605">
+        <v>2006</v>
+      </c>
+      <c r="E605">
+        <v>116</v>
+      </c>
+      <c r="F605" t="s">
+        <v>3823</v>
+      </c>
+      <c r="G605" t="s">
+        <v>126</v>
+      </c>
+      <c r="H605" t="s">
+        <v>36</v>
+      </c>
+      <c r="I605" t="s">
+        <v>33</v>
+      </c>
+      <c r="J605" t="str">
+        <f t="shared" si="0"/>
+        <v>Pathogens, nutritional deficiency, and climate influences on a declining moose population</v>
+      </c>
+      <c r="K605" t="str">
+        <f t="shared" si="1"/>
+        <v>Murray, Dennis L.; Cox, Eric W.; Ballard, Warren B.; Whitlaw, Heather A.; Lenarz, Mark S.; Custer, Thomas W.; Barnett, Terri; Fuller, Todd K.</v>
+      </c>
+      <c r="L605">
+        <f t="shared" si="2"/>
+        <v>116</v>
+      </c>
+      <c r="M605">
+        <f t="shared" si="3"/>
+        <v>6.8235294117647056</v>
+      </c>
+      <c r="N605" t="s">
+        <v>34</v>
+      </c>
+      <c r="O605" t="s">
+        <v>3834</v>
+      </c>
+      <c r="P605" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q605" t="s">
+        <v>33</v>
+      </c>
+      <c r="R605" t="s">
+        <v>33</v>
+      </c>
+      <c r="S605" t="s">
+        <v>33</v>
+      </c>
+      <c r="T605" t="s">
+        <v>33</v>
+      </c>
+      <c r="U605" t="s">
+        <v>33</v>
+      </c>
+      <c r="V605" t="s">
+        <v>33</v>
+      </c>
+      <c r="W605" t="s">
+        <v>33</v>
+      </c>
+      <c r="X605" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y605" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z605" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA605" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB605">
+        <v>0</v>
+      </c>
+      <c r="AC605" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="606" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>3824</v>
+      </c>
+      <c r="B606" t="s">
+        <v>3825</v>
+      </c>
+      <c r="C606" t="s">
+        <v>33</v>
+      </c>
+      <c r="D606">
+        <v>2021</v>
+      </c>
+      <c r="E606">
+        <v>39</v>
+      </c>
+      <c r="F606" t="s">
+        <v>3826</v>
+      </c>
+      <c r="G606" t="s">
+        <v>126</v>
+      </c>
+      <c r="H606" t="s">
+        <v>36</v>
+      </c>
+      <c r="I606" t="s">
+        <v>33</v>
+      </c>
+      <c r="J606" t="str">
+        <f t="shared" si="0"/>
+        <v>Climate anxiety in children and young people and their beliefs about government responses to climate change: a global survey</v>
+      </c>
+      <c r="K606" t="str">
+        <f t="shared" si="1"/>
+        <v>Hickman, Caroline; Marks, Elizabeth; Pihkala, Panu; Clayton, Susan; Lewandowski, R. Eric; Mayall, Elouise E.; Wray, Britt; Mellor, Catriona; van Susteren, Lise</v>
+      </c>
+      <c r="L606">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="M606">
+        <f t="shared" si="3"/>
+        <v>19.5</v>
+      </c>
+      <c r="N606" t="s">
+        <v>34</v>
+      </c>
+      <c r="O606" t="s">
+        <v>3835</v>
+      </c>
+      <c r="P606" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q606" t="s">
+        <v>33</v>
+      </c>
+      <c r="R606" t="s">
+        <v>33</v>
+      </c>
+      <c r="S606" t="s">
+        <v>33</v>
+      </c>
+      <c r="T606" t="s">
+        <v>33</v>
+      </c>
+      <c r="U606" t="s">
+        <v>33</v>
+      </c>
+      <c r="V606" t="s">
+        <v>33</v>
+      </c>
+      <c r="W606" t="s">
+        <v>33</v>
+      </c>
+      <c r="X606" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y606" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z606" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA606" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB606">
+        <v>0</v>
+      </c>
+      <c r="AC606" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="607" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>3827</v>
+      </c>
+      <c r="B607" t="s">
+        <v>3828</v>
+      </c>
+      <c r="C607" t="s">
+        <v>33</v>
+      </c>
+      <c r="D607">
+        <v>2021</v>
+      </c>
+      <c r="E607">
+        <v>24</v>
+      </c>
+      <c r="F607" t="s">
+        <v>3829</v>
+      </c>
+      <c r="G607" t="s">
+        <v>126</v>
+      </c>
+      <c r="H607" t="s">
+        <v>36</v>
+      </c>
+      <c r="I607" t="s">
+        <v>33</v>
+      </c>
+      <c r="J607" t="str">
+        <f t="shared" si="0"/>
+        <v>Reducing the health effects of hot weather and heat extremes: from personal cooling strategies to green cities</v>
+      </c>
+      <c r="K607" t="str">
+        <f t="shared" si="1"/>
+        <v>Jay, Ollie; Capon, Anthony; Berry, Peter; Broderick, Carolyn; de Dear, Richard; Havenith, George; Honda, Yasushi; Kovats, R. Sari; Ma, Wei; Malik, Arunima; Morris, Nathan B.; Nybo, Lars; Seneviratne, Sonia I.; Vanos, Jennifer; Ebi, Kristie L.</v>
+      </c>
+      <c r="L607">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="M607">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="N607" t="s">
+        <v>3837</v>
+      </c>
+      <c r="O607" t="s">
+        <v>3838</v>
+      </c>
+      <c r="P607" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q607" t="s">
+        <v>78</v>
+      </c>
+      <c r="R607" t="s">
+        <v>104</v>
+      </c>
+      <c r="S607" t="s">
+        <v>1992</v>
+      </c>
+      <c r="T607" t="s">
+        <v>348</v>
+      </c>
+      <c r="U607" t="s">
+        <v>79</v>
+      </c>
+      <c r="V607" t="s">
+        <v>81</v>
+      </c>
+      <c r="W607" t="s">
+        <v>79</v>
+      </c>
+      <c r="X607" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y607" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z607" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA607" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB607">
+        <v>0</v>
+      </c>
+      <c r="AC607" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="608" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>3830</v>
+      </c>
+      <c r="B608" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C608" t="s">
+        <v>33</v>
+      </c>
+      <c r="D608">
+        <v>2021</v>
+      </c>
+      <c r="E608">
+        <v>28</v>
+      </c>
+      <c r="F608" t="s">
+        <v>3832</v>
+      </c>
+      <c r="G608" t="s">
+        <v>126</v>
+      </c>
+      <c r="H608" t="s">
+        <v>36</v>
+      </c>
+      <c r="I608" t="s">
+        <v>33</v>
+      </c>
+      <c r="J608" t="str">
+        <f t="shared" si="0"/>
+        <v>Climate change and child health: a scoping review and an expanded conceptual framework</v>
+      </c>
+      <c r="K608" t="str">
+        <f t="shared" si="1"/>
+        <v>Hellden, Daniel; Andersson, Camilla; Nilsson, Maria; Ebi, Kristie L.; Friberg, Peter; Alfven, Tobias</v>
+      </c>
+      <c r="L608">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="M608">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="N608" t="s">
+        <v>34</v>
+      </c>
+      <c r="O608" t="s">
+        <v>3835</v>
+      </c>
+      <c r="P608" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q608" t="s">
+        <v>33</v>
+      </c>
+      <c r="R608" t="s">
+        <v>33</v>
+      </c>
+      <c r="S608" t="s">
+        <v>33</v>
+      </c>
+      <c r="T608" t="s">
+        <v>33</v>
+      </c>
+      <c r="U608" t="s">
+        <v>33</v>
+      </c>
+      <c r="V608" t="s">
+        <v>33</v>
+      </c>
+      <c r="W608" t="s">
+        <v>33</v>
+      </c>
+      <c r="X608" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y608" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z608" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA608" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB608">
+        <v>0</v>
+      </c>
+      <c r="AC608" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -67054,7 +67889,7 @@
   <dimension ref="A1:U316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/R/DATA-RAW/papers2.xlsx
+++ b/R/DATA-RAW/papers2.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fsu-my.sharepoint.com/personal/meh03c_fsu_edu/Documents/MANUSCRIPTS/WORKING/cc-aging-review/R/DATA-RAW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{DE70B62C-02DA-415C-B7A9-E1D7251D3D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A07B07B-9CB6-403C-A8A1-4F7A52DD3AB4}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{DE70B62C-02DA-415C-B7A9-E1D7251D3D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF681CCB-FB4D-447B-90A6-6E9A822D51A7}"/>
   <bookViews>
-    <workbookView xWindow="30615" yWindow="690" windowWidth="25635" windowHeight="14295" tabRatio="184" xr2:uid="{0474FF3C-F5F4-4032-A5CB-9951DE8E4272}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="184" xr2:uid="{0474FF3C-F5F4-4032-A5CB-9951DE8E4272}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AC$600</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AC$608</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -12297,11 +12297,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE7EB28-56C6-4661-A107-FC24E54E6505}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AC608"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A591" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA607" sqref="AA607"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N157" sqref="N157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12400,7 +12401,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -12489,7 +12490,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -12592,7 +12593,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -12696,7 +12697,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -12800,7 +12801,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -12889,7 +12890,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -12993,7 +12994,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -13097,7 +13098,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -13186,7 +13187,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -13275,7 +13276,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>73</v>
       </c>
@@ -13361,7 +13362,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>82</v>
       </c>
@@ -13450,7 +13451,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>87</v>
       </c>
@@ -13554,7 +13555,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>91</v>
       </c>
@@ -13658,7 +13659,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>95</v>
       </c>
@@ -13761,7 +13762,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>99</v>
       </c>
@@ -13847,7 +13848,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>109</v>
       </c>
@@ -13936,7 +13937,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>114</v>
       </c>
@@ -14040,7 +14041,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>118</v>
       </c>
@@ -14144,7 +14145,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>122</v>
       </c>
@@ -14233,7 +14234,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>129</v>
       </c>
@@ -14322,7 +14323,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>134</v>
       </c>
@@ -14426,7 +14427,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>138</v>
       </c>
@@ -14530,7 +14531,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>142</v>
       </c>
@@ -14634,7 +14635,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>146</v>
       </c>
@@ -14736,7 +14737,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>150</v>
       </c>
@@ -14840,7 +14841,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>154</v>
       </c>
@@ -14929,7 +14930,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>160</v>
       </c>
@@ -15018,7 +15019,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>165</v>
       </c>
@@ -15104,7 +15105,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>173</v>
       </c>
@@ -15193,7 +15194,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>179</v>
       </c>
@@ -15282,7 +15283,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>184</v>
       </c>
@@ -15371,7 +15372,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>192</v>
       </c>
@@ -15564,7 +15565,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>206</v>
       </c>
@@ -15668,7 +15669,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>210</v>
       </c>
@@ -15757,7 +15758,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>216</v>
       </c>
@@ -15846,7 +15847,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>221</v>
       </c>
@@ -15932,7 +15933,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>226</v>
       </c>
@@ -16021,7 +16022,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>233</v>
       </c>
@@ -16110,7 +16111,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>239</v>
       </c>
@@ -16199,7 +16200,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>245</v>
       </c>
@@ -16303,7 +16304,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>249</v>
       </c>
@@ -16407,7 +16408,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>253</v>
       </c>
@@ -16496,7 +16497,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>259</v>
       </c>
@@ -16585,7 +16586,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>264</v>
       </c>
@@ -16671,7 +16672,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>273</v>
       </c>
@@ -16775,7 +16776,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>277</v>
       </c>
@@ -16864,7 +16865,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>287</v>
       </c>
@@ -16953,7 +16954,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>296</v>
       </c>
@@ -17057,7 +17058,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>300</v>
       </c>
@@ -17146,7 +17147,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>311</v>
       </c>
@@ -17235,7 +17236,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>317</v>
       </c>
@@ -17324,7 +17325,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>323</v>
       </c>
@@ -17413,7 +17414,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>329</v>
       </c>
@@ -17517,7 +17518,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>333</v>
       </c>
@@ -17606,7 +17607,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>339</v>
       </c>
@@ -17695,7 +17696,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>350</v>
       </c>
@@ -17784,7 +17785,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>356</v>
       </c>
@@ -17873,7 +17874,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>361</v>
       </c>
@@ -17962,7 +17963,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>367</v>
       </c>
@@ -18051,7 +18052,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>377</v>
       </c>
@@ -18140,7 +18141,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>383</v>
       </c>
@@ -18229,7 +18230,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>389</v>
       </c>
@@ -18318,7 +18319,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>394</v>
       </c>
@@ -18407,7 +18408,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>399</v>
       </c>
@@ -18496,7 +18497,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>405</v>
       </c>
@@ -18585,7 +18586,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>411</v>
       </c>
@@ -18674,7 +18675,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>424</v>
       </c>
@@ -18763,7 +18764,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>430</v>
       </c>
@@ -18852,7 +18853,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>441</v>
       </c>
@@ -18941,7 +18942,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>446</v>
       </c>
@@ -19030,7 +19031,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>452</v>
       </c>
@@ -19119,7 +19120,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>462</v>
       </c>
@@ -19208,7 +19209,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>468</v>
       </c>
@@ -19297,7 +19298,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>474</v>
       </c>
@@ -19386,7 +19387,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>480</v>
       </c>
@@ -19475,7 +19476,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>492</v>
       </c>
@@ -19578,7 +19579,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>496</v>
       </c>
@@ -19667,7 +19668,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>506</v>
       </c>
@@ -19756,7 +19757,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>512</v>
       </c>
@@ -19845,7 +19846,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>521</v>
       </c>
@@ -19949,7 +19950,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>525</v>
       </c>
@@ -20038,7 +20039,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>531</v>
       </c>
@@ -20127,7 +20128,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>537</v>
       </c>
@@ -20216,7 +20217,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>543</v>
       </c>
@@ -20305,7 +20306,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>552</v>
       </c>
@@ -20394,7 +20395,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>558</v>
       </c>
@@ -20483,7 +20484,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>564</v>
       </c>
@@ -20569,7 +20570,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>572</v>
       </c>
@@ -20673,7 +20674,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>576</v>
       </c>
@@ -20762,7 +20763,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>582</v>
       </c>
@@ -20851,7 +20852,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>588</v>
       </c>
@@ -20940,7 +20941,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>594</v>
       </c>
@@ -21029,7 +21030,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>600</v>
       </c>
@@ -21118,7 +21119,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>609</v>
       </c>
@@ -21207,7 +21208,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>614</v>
       </c>
@@ -21296,7 +21297,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>620</v>
       </c>
@@ -21385,7 +21386,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>626</v>
       </c>
@@ -21474,7 +21475,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>632</v>
       </c>
@@ -21563,7 +21564,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>638</v>
       </c>
@@ -21667,7 +21668,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>642</v>
       </c>
@@ -21756,7 +21757,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>651</v>
       </c>
@@ -21845,7 +21846,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>660</v>
       </c>
@@ -21934,7 +21935,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>666</v>
       </c>
@@ -22023,7 +22024,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>672</v>
       </c>
@@ -22112,7 +22113,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>680</v>
       </c>
@@ -22201,7 +22202,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>686</v>
       </c>
@@ -22305,7 +22306,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>690</v>
       </c>
@@ -22394,7 +22395,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>696</v>
       </c>
@@ -22483,7 +22484,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>702</v>
       </c>
@@ -22572,7 +22573,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>708</v>
       </c>
@@ -22661,7 +22662,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>714</v>
       </c>
@@ -22750,7 +22751,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>726</v>
       </c>
@@ -22839,7 +22840,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>734</v>
       </c>
@@ -22928,7 +22929,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>744</v>
       </c>
@@ -23017,7 +23018,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>749</v>
       </c>
@@ -23106,7 +23107,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>755</v>
       </c>
@@ -23195,7 +23196,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>761</v>
       </c>
@@ -23284,7 +23285,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>768</v>
       </c>
@@ -23373,7 +23374,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>774</v>
       </c>
@@ -23462,7 +23463,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>783</v>
       </c>
@@ -23551,7 +23552,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>789</v>
       </c>
@@ -23653,7 +23654,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>795</v>
       </c>
@@ -23742,7 +23743,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>801</v>
       </c>
@@ -23831,7 +23832,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>807</v>
       </c>
@@ -23920,7 +23921,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>813</v>
       </c>
@@ -24009,7 +24010,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>819</v>
       </c>
@@ -24098,7 +24099,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="129" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>825</v>
       </c>
@@ -24187,7 +24188,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="130" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>831</v>
       </c>
@@ -24276,7 +24277,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="131" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>837</v>
       </c>
@@ -24365,7 +24366,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="132" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>843</v>
       </c>
@@ -24454,7 +24455,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="133" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>849</v>
       </c>
@@ -24543,7 +24544,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="134" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>855</v>
       </c>
@@ -24632,7 +24633,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="135" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>861</v>
       </c>
@@ -24721,7 +24722,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="136" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>867</v>
       </c>
@@ -24810,7 +24811,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="137" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>875</v>
       </c>
@@ -24899,7 +24900,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="138" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>881</v>
       </c>
@@ -24988,7 +24989,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="139" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>887</v>
       </c>
@@ -25077,7 +25078,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="140" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>893</v>
       </c>
@@ -25166,7 +25167,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="141" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>899</v>
       </c>
@@ -25255,7 +25256,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="142" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>905</v>
       </c>
@@ -25344,7 +25345,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="143" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>911</v>
       </c>
@@ -25433,7 +25434,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="144" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>917</v>
       </c>
@@ -25522,7 +25523,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="145" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>924</v>
       </c>
@@ -25611,7 +25612,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="146" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>930</v>
       </c>
@@ -25700,7 +25701,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="147" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>936</v>
       </c>
@@ -25789,7 +25790,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="148" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>942</v>
       </c>
@@ -25878,7 +25879,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="149" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>950</v>
       </c>
@@ -25967,7 +25968,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="150" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>958</v>
       </c>
@@ -26056,7 +26057,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="151" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>964</v>
       </c>
@@ -26145,7 +26146,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="152" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>970</v>
       </c>
@@ -26234,7 +26235,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="153" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>976</v>
       </c>
@@ -26323,7 +26324,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="154" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>982</v>
       </c>
@@ -26412,7 +26413,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="155" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>988</v>
       </c>
@@ -26501,7 +26502,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="156" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>994</v>
       </c>
@@ -26679,7 +26680,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="158" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>1008</v>
       </c>
@@ -26768,7 +26769,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="159" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>1014</v>
       </c>
@@ -26857,7 +26858,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="160" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>1020</v>
       </c>
@@ -26946,7 +26947,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="161" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>1026</v>
       </c>
@@ -27035,7 +27036,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="162" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>1032</v>
       </c>
@@ -27124,7 +27125,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="163" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>1038</v>
       </c>
@@ -27213,7 +27214,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="164" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>1044</v>
       </c>
@@ -27302,7 +27303,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="165" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>1049</v>
       </c>
@@ -27391,7 +27392,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="166" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>1054</v>
       </c>
@@ -27480,7 +27481,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="167" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>1062</v>
       </c>
@@ -27569,7 +27570,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="168" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>1067</v>
       </c>
@@ -27658,7 +27659,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="169" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>1072</v>
       </c>
@@ -27762,7 +27763,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="170" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>1076</v>
       </c>
@@ -27866,7 +27867,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="171" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>1080</v>
       </c>
@@ -27955,7 +27956,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="172" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>1085</v>
       </c>
@@ -28044,7 +28045,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="173" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>1090</v>
       </c>
@@ -28148,7 +28149,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="174" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>1094</v>
       </c>
@@ -28252,7 +28253,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="175" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>1098</v>
       </c>
@@ -28355,7 +28356,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="176" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>1102</v>
       </c>
@@ -28459,7 +28460,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="177" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>1106</v>
       </c>
@@ -28548,7 +28549,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="178" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>1110</v>
       </c>
@@ -28634,7 +28635,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="179" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>1117</v>
       </c>
@@ -28723,7 +28724,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="180" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>1122</v>
       </c>
@@ -28827,7 +28828,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="181" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>1126</v>
       </c>
@@ -28916,7 +28917,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="182" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>1131</v>
       </c>
@@ -29020,7 +29021,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="183" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>1135</v>
       </c>
@@ -29124,7 +29125,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="184" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>1139</v>
       </c>
@@ -29314,7 +29315,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="186" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>1150</v>
       </c>
@@ -29418,7 +29419,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="187" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>1154</v>
       </c>
@@ -29521,7 +29522,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="188" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>1158</v>
       </c>
@@ -29625,7 +29626,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="189" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>1162</v>
       </c>
@@ -29728,7 +29729,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="190" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>1166</v>
       </c>
@@ -29817,7 +29818,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="191" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>1171</v>
       </c>
@@ -29906,7 +29907,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="192" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>1177</v>
       </c>
@@ -30009,7 +30010,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="193" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>1181</v>
       </c>
@@ -30098,7 +30099,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="194" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>1186</v>
       </c>
@@ -30202,7 +30203,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="195" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>1190</v>
       </c>
@@ -30291,7 +30292,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="196" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>1195</v>
       </c>
@@ -30380,7 +30381,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="197" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>1201</v>
       </c>
@@ -30484,7 +30485,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="198" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>1205</v>
       </c>
@@ -30573,7 +30574,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="199" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>1209</v>
       </c>
@@ -30677,7 +30678,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="200" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>1213</v>
       </c>
@@ -30781,7 +30782,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="201" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>1217</v>
       </c>
@@ -30956,7 +30957,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="203" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>1229</v>
       </c>
@@ -31045,7 +31046,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="204" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>1234</v>
       </c>
@@ -31134,7 +31135,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="205" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>1238</v>
       </c>
@@ -31327,7 +31328,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="207" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>1250</v>
       </c>
@@ -31416,7 +31417,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="208" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>1254</v>
       </c>
@@ -31520,7 +31521,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="209" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>1258</v>
       </c>
@@ -31609,7 +31610,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="210" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>1264</v>
       </c>
@@ -31698,7 +31699,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="211" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>1270</v>
       </c>
@@ -31787,7 +31788,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="212" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>1276</v>
       </c>
@@ -31876,7 +31877,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="213" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>1282</v>
       </c>
@@ -31965,7 +31966,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="214" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>1287</v>
       </c>
@@ -32054,7 +32055,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="215" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>1292</v>
       </c>
@@ -32143,7 +32144,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="216" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>1296</v>
       </c>
@@ -32247,7 +32248,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="217" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>1300</v>
       </c>
@@ -32336,7 +32337,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="218" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>1304</v>
       </c>
@@ -32425,7 +32426,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="219" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>1310</v>
       </c>
@@ -32514,7 +32515,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="220" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>1316</v>
       </c>
@@ -32603,7 +32604,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="221" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>1322</v>
       </c>
@@ -32706,7 +32707,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="222" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>1326</v>
       </c>
@@ -32795,7 +32796,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="223" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>1332</v>
       </c>
@@ -32884,7 +32885,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="224" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>1338</v>
       </c>
@@ -32973,7 +32974,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="225" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>1348</v>
       </c>
@@ -33059,7 +33060,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="226" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>1355</v>
       </c>
@@ -33148,7 +33149,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="227" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>1361</v>
       </c>
@@ -33237,7 +33238,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="228" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>1367</v>
       </c>
@@ -33326,7 +33327,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="229" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>1373</v>
       </c>
@@ -33415,7 +33416,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="230" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>1379</v>
       </c>
@@ -33593,7 +33594,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="232" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>1392</v>
       </c>
@@ -33682,7 +33683,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="233" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>1401</v>
       </c>
@@ -33771,7 +33772,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="234" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>1407</v>
       </c>
@@ -33860,7 +33861,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="235" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>1413</v>
       </c>
@@ -33949,7 +33950,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="236" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>1422</v>
       </c>
@@ -34038,7 +34039,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="237" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>1428</v>
       </c>
@@ -34127,7 +34128,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="238" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>1434</v>
       </c>
@@ -34216,7 +34217,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="239" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>1440</v>
       </c>
@@ -34305,7 +34306,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="240" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>1445</v>
       </c>
@@ -34409,7 +34410,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="241" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>1449</v>
       </c>
@@ -34498,7 +34499,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="242" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>1454</v>
       </c>
@@ -34587,7 +34588,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="243" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>1460</v>
       </c>
@@ -34676,7 +34677,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="244" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>1466</v>
       </c>
@@ -34765,7 +34766,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="245" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>1471</v>
       </c>
@@ -34854,7 +34855,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="246" spans="1:29" ht="120" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:29" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>1478</v>
       </c>
@@ -34943,7 +34944,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="247" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>1487</v>
       </c>
@@ -35032,7 +35033,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="248" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>1493</v>
       </c>
@@ -35121,7 +35122,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="249" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>1499</v>
       </c>
@@ -35210,7 +35211,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="250" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>1505</v>
       </c>
@@ -35299,7 +35300,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="251" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>1511</v>
       </c>
@@ -35388,7 +35389,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="252" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>1517</v>
       </c>
@@ -35477,7 +35478,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="253" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>1525</v>
       </c>
@@ -35581,7 +35582,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="254" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>1529</v>
       </c>
@@ -35670,7 +35671,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="255" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>1539</v>
       </c>
@@ -35759,7 +35760,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="256" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>1545</v>
       </c>
@@ -35848,7 +35849,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="257" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>1551</v>
       </c>
@@ -35937,7 +35938,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="258" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>1557</v>
       </c>
@@ -36026,7 +36027,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="259" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>1563</v>
       </c>
@@ -36115,7 +36116,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="260" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>1569</v>
       </c>
@@ -36204,7 +36205,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="261" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>1575</v>
       </c>
@@ -36308,7 +36309,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="262" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>1579</v>
       </c>
@@ -36397,7 +36398,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="263" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>1584</v>
       </c>
@@ -36486,7 +36487,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="264" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>1590</v>
       </c>
@@ -36575,7 +36576,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="265" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>1600</v>
       </c>
@@ -36664,7 +36665,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="266" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>1606</v>
       </c>
@@ -36753,7 +36754,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="267" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>1612</v>
       </c>
@@ -36842,7 +36843,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="268" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>1618</v>
       </c>
@@ -36931,7 +36932,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="269" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>1624</v>
       </c>
@@ -37020,7 +37021,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="270" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>1630</v>
       </c>
@@ -37109,7 +37110,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="271" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>1636</v>
       </c>
@@ -37198,7 +37199,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="272" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>1643</v>
       </c>
@@ -37287,7 +37288,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="273" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>1649</v>
       </c>
@@ -37376,7 +37377,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="274" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>1655</v>
       </c>
@@ -37465,7 +37466,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="275" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>1661</v>
       </c>
@@ -37554,7 +37555,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="276" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>1668</v>
       </c>
@@ -37643,7 +37644,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="277" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>1677</v>
       </c>
@@ -37729,7 +37730,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="278" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>1682</v>
       </c>
@@ -37818,7 +37819,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="279" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>1688</v>
       </c>
@@ -37907,7 +37908,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="280" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>1694</v>
       </c>
@@ -37996,7 +37997,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="281" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>1700</v>
       </c>
@@ -38085,7 +38086,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="282" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>1706</v>
       </c>
@@ -38174,7 +38175,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="283" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>1712</v>
       </c>
@@ -38263,7 +38264,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="284" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>1718</v>
       </c>
@@ -38352,7 +38353,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="285" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>1724</v>
       </c>
@@ -38441,7 +38442,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="286" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>1730</v>
       </c>
@@ -38530,7 +38531,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="287" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>1737</v>
       </c>
@@ -38619,7 +38620,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="288" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>1743</v>
       </c>
@@ -38708,7 +38709,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="289" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>1749</v>
       </c>
@@ -38797,7 +38798,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="290" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>1755</v>
       </c>
@@ -38886,7 +38887,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="291" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>1761</v>
       </c>
@@ -38975,7 +38976,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="292" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>1767</v>
       </c>
@@ -39064,7 +39065,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="293" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>1773</v>
       </c>
@@ -39153,7 +39154,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="294" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>1779</v>
       </c>
@@ -39242,7 +39243,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="295" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>1785</v>
       </c>
@@ -39331,7 +39332,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="296" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>1792</v>
       </c>
@@ -39420,7 +39421,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="297" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>1801</v>
       </c>
@@ -39509,7 +39510,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="298" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>1809</v>
       </c>
@@ -39598,7 +39599,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="299" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>1815</v>
       </c>
@@ -39687,7 +39688,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="300" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>1824</v>
       </c>
@@ -39776,7 +39777,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="301" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>1830</v>
       </c>
@@ -39865,7 +39866,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="302" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>1836</v>
       </c>
@@ -39954,7 +39955,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="303" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>1842</v>
       </c>
@@ -40043,7 +40044,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="304" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>1848</v>
       </c>
@@ -40129,7 +40130,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="305" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>1855</v>
       </c>
@@ -40218,7 +40219,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="306" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>1862</v>
       </c>
@@ -40307,7 +40308,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="307" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>1868</v>
       </c>
@@ -40396,7 +40397,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="308" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>1874</v>
       </c>
@@ -40485,7 +40486,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="309" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>1880</v>
       </c>
@@ -40574,7 +40575,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="310" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>1886</v>
       </c>
@@ -40663,7 +40664,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="311" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>1892</v>
       </c>
@@ -40752,7 +40753,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="312" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>1898</v>
       </c>
@@ -40841,7 +40842,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="313" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>1903</v>
       </c>
@@ -40930,7 +40931,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="314" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>1908</v>
       </c>
@@ -41019,7 +41020,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="315" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>1916</v>
       </c>
@@ -41108,7 +41109,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="316" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>1921</v>
       </c>
@@ -41197,7 +41198,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="317" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>1926</v>
       </c>
@@ -41286,7 +41287,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="318" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>1931</v>
       </c>
@@ -41375,7 +41376,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="319" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>1936</v>
       </c>
@@ -41479,7 +41480,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="320" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>1940</v>
       </c>
@@ -41583,7 +41584,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="321" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>1944</v>
       </c>
@@ -41687,7 +41688,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="322" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>1948</v>
       </c>
@@ -41791,7 +41792,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="323" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>1952</v>
       </c>
@@ -41880,7 +41881,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="324" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>1957</v>
       </c>
@@ -41969,7 +41970,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="325" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>1961</v>
       </c>
@@ -42058,7 +42059,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="326" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>1965</v>
       </c>
@@ -42147,7 +42148,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="327" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>1971</v>
       </c>
@@ -42236,7 +42237,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="328" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>1977</v>
       </c>
@@ -42325,7 +42326,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="329" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>1983</v>
       </c>
@@ -42429,7 +42430,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="330" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>1987</v>
       </c>
@@ -42518,7 +42519,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="331" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>1993</v>
       </c>
@@ -42607,7 +42608,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="332" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>1999</v>
       </c>
@@ -42711,7 +42712,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="333" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>2003</v>
       </c>
@@ -42815,7 +42816,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="334" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>2007</v>
       </c>
@@ -42904,7 +42905,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="335" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>2014</v>
       </c>
@@ -42993,7 +42994,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="336" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>2020</v>
       </c>
@@ -43171,7 +43172,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="338" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>2037</v>
       </c>
@@ -43260,7 +43261,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="339" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>2043</v>
       </c>
@@ -43349,7 +43350,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="340" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>2048</v>
       </c>
@@ -43438,7 +43439,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="341" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>2053</v>
       </c>
@@ -43527,7 +43528,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="342" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>2059</v>
       </c>
@@ -43616,7 +43617,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="343" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>2065</v>
       </c>
@@ -43705,7 +43706,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="344" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>2071</v>
       </c>
@@ -43794,7 +43795,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="345" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>2077</v>
       </c>
@@ -43883,7 +43884,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="346" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>2083</v>
       </c>
@@ -43972,7 +43973,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="347" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>2089</v>
       </c>
@@ -44061,7 +44062,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="348" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>2094</v>
       </c>
@@ -44150,7 +44151,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="349" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>2100</v>
       </c>
@@ -44254,7 +44255,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="350" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>2104</v>
       </c>
@@ -44343,7 +44344,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="351" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>2110</v>
       </c>
@@ -44429,7 +44430,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="352" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>2116</v>
       </c>
@@ -44518,7 +44519,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="353" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>2122</v>
       </c>
@@ -44607,7 +44608,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="354" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>2128</v>
       </c>
@@ -44696,7 +44697,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="355" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>2134</v>
       </c>
@@ -44785,7 +44786,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="356" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>2144</v>
       </c>
@@ -44874,7 +44875,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="357" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>2150</v>
       </c>
@@ -44963,7 +44964,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="358" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>2156</v>
       </c>
@@ -45052,7 +45053,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="359" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>2162</v>
       </c>
@@ -45141,7 +45142,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="360" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>2168</v>
       </c>
@@ -45230,7 +45231,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="361" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>2176</v>
       </c>
@@ -45319,7 +45320,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="362" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>2182</v>
       </c>
@@ -45408,7 +45409,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="363" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>2190</v>
       </c>
@@ -45497,7 +45498,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="364" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>2198</v>
       </c>
@@ -45586,7 +45587,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="365" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>2205</v>
       </c>
@@ -45675,7 +45676,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="366" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>2213</v>
       </c>
@@ -45764,7 +45765,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="367" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>2219</v>
       </c>
@@ -45853,7 +45854,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="368" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>2228</v>
       </c>
@@ -45942,7 +45943,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="369" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>2234</v>
       </c>
@@ -46031,7 +46032,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="370" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>2240</v>
       </c>
@@ -46120,7 +46121,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="371" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>2246</v>
       </c>
@@ -46209,7 +46210,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="372" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>2254</v>
       </c>
@@ -46298,7 +46299,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="373" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>2263</v>
       </c>
@@ -46387,7 +46388,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="374" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>2270</v>
       </c>
@@ -46476,7 +46477,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="375" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>2276</v>
       </c>
@@ -46565,7 +46566,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="376" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>2281</v>
       </c>
@@ -46654,7 +46655,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="377" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>2287</v>
       </c>
@@ -46740,7 +46741,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="378" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>2295</v>
       </c>
@@ -46829,7 +46830,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="379" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>2300</v>
       </c>
@@ -46918,7 +46919,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="380" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>2305</v>
       </c>
@@ -47004,7 +47005,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="381" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>2310</v>
       </c>
@@ -47093,7 +47094,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="382" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>2315</v>
       </c>
@@ -47197,7 +47198,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="383" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>2319</v>
       </c>
@@ -47403,7 +47404,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="385" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>2327</v>
       </c>
@@ -47492,7 +47493,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="386" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>2332</v>
       </c>
@@ -47581,7 +47582,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="387" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>2336</v>
       </c>
@@ -47683,7 +47684,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="388" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>2340</v>
       </c>
@@ -47786,7 +47787,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="389" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>2344</v>
       </c>
@@ -47875,7 +47876,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="390" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>2349</v>
       </c>
@@ -47979,7 +47980,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="391" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>2353</v>
       </c>
@@ -48083,7 +48084,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="392" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>2357</v>
       </c>
@@ -48187,7 +48188,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="393" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>2361</v>
       </c>
@@ -48291,7 +48292,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="394" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>2365</v>
       </c>
@@ -48380,7 +48381,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="395" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>2370</v>
       </c>
@@ -48469,7 +48470,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="396" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>2375</v>
       </c>
@@ -48572,7 +48573,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="397" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>2379</v>
       </c>
@@ -48676,7 +48677,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="398" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>2383</v>
       </c>
@@ -48780,7 +48781,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="399" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>2387</v>
       </c>
@@ -48884,7 +48885,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="400" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>2391</v>
       </c>
@@ -48986,7 +48987,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="401" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>2395</v>
       </c>
@@ -49090,7 +49091,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="402" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>2399</v>
       </c>
@@ -49179,7 +49180,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="403" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>2404</v>
       </c>
@@ -49354,7 +49355,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="405" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>2414</v>
       </c>
@@ -49456,7 +49457,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="406" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>2418</v>
       </c>
@@ -49545,7 +49546,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="407" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>2422</v>
       </c>
@@ -49649,7 +49650,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="408" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>2426</v>
       </c>
@@ -49824,7 +49825,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="410" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>2437</v>
       </c>
@@ -49913,7 +49914,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="411" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>2443</v>
       </c>
@@ -49999,7 +50000,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="412" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>2450</v>
       </c>
@@ -50088,7 +50089,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="413" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>2456</v>
       </c>
@@ -50192,7 +50193,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="414" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>2460</v>
       </c>
@@ -50296,7 +50297,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="415" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>2464</v>
       </c>
@@ -50400,7 +50401,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="416" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>2468</v>
       </c>
@@ -50504,7 +50505,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="417" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>2472</v>
       </c>
@@ -50608,7 +50609,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="418" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>2476</v>
       </c>
@@ -50697,7 +50698,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="419" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>2482</v>
       </c>
@@ -50801,7 +50802,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="420" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>2486</v>
       </c>
@@ -50905,7 +50906,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="421" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>2490</v>
       </c>
@@ -50994,7 +50995,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="422" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>2500</v>
       </c>
@@ -51083,7 +51084,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="423" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>2508</v>
       </c>
@@ -51186,7 +51187,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="424" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>2512</v>
       </c>
@@ -51290,7 +51291,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="425" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>2516</v>
       </c>
@@ -51394,7 +51395,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="426" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>2520</v>
       </c>
@@ -51483,7 +51484,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="427" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>2527</v>
       </c>
@@ -51569,7 +51570,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="428" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>2532</v>
       </c>
@@ -51672,7 +51673,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="429" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>2536</v>
       </c>
@@ -51761,7 +51762,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="430" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>2546</v>
       </c>
@@ -51850,7 +51851,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="431" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>2552</v>
       </c>
@@ -51939,7 +51940,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="432" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>2558</v>
       </c>
@@ -52042,7 +52043,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="433" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>2562</v>
       </c>
@@ -52131,7 +52132,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="434" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>2568</v>
       </c>
@@ -52220,7 +52221,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="435" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>2577</v>
       </c>
@@ -52309,7 +52310,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="436" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>2586</v>
       </c>
@@ -52398,7 +52399,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="437" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>2594</v>
       </c>
@@ -52487,7 +52488,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="438" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>2600</v>
       </c>
@@ -52576,7 +52577,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="439" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>2605</v>
       </c>
@@ -52678,7 +52679,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="440" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>2609</v>
       </c>
@@ -52767,7 +52768,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="441" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>2615</v>
       </c>
@@ -52856,7 +52857,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="442" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>2624</v>
       </c>
@@ -52945,7 +52946,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="443" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>2629</v>
       </c>
@@ -53031,7 +53032,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="444" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>2634</v>
       </c>
@@ -53135,7 +53136,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="445" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>2638</v>
       </c>
@@ -53224,7 +53225,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="446" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>2644</v>
       </c>
@@ -53313,7 +53314,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="447" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>2656</v>
       </c>
@@ -53402,7 +53403,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="448" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>2660</v>
       </c>
@@ -53491,7 +53492,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="449" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>2670</v>
       </c>
@@ -53580,7 +53581,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="450" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>2675</v>
       </c>
@@ -53666,7 +53667,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="451" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>2680</v>
       </c>
@@ -53755,7 +53756,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="452" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>2686</v>
       </c>
@@ -53844,7 +53845,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="453" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>2692</v>
       </c>
@@ -53933,7 +53934,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="454" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>2703</v>
       </c>
@@ -54022,7 +54023,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="455" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>2709</v>
       </c>
@@ -54111,7 +54112,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="456" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>2715</v>
       </c>
@@ -54200,7 +54201,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="457" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>2722</v>
       </c>
@@ -54289,7 +54290,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="458" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>2728</v>
       </c>
@@ -54378,7 +54379,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="459" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>2734</v>
       </c>
@@ -54467,7 +54468,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="460" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>2743</v>
       </c>
@@ -54556,7 +54557,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="461" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>2751</v>
       </c>
@@ -54645,7 +54646,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="462" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>2757</v>
       </c>
@@ -54734,7 +54735,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="463" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>2763</v>
       </c>
@@ -54823,7 +54824,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="464" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>2769</v>
       </c>
@@ -54912,7 +54913,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="465" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>2775</v>
       </c>
@@ -55001,7 +55002,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="466" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>2784</v>
       </c>
@@ -55090,7 +55091,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="467" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>2792</v>
       </c>
@@ -55179,7 +55180,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="468" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>2798</v>
       </c>
@@ -55268,7 +55269,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="469" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>2806</v>
       </c>
@@ -55357,7 +55358,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="470" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>2812</v>
       </c>
@@ -55443,7 +55444,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="471" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>2818</v>
       </c>
@@ -55532,7 +55533,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="472" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>2824</v>
       </c>
@@ -55618,7 +55619,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="473" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>2829</v>
       </c>
@@ -55707,7 +55708,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="474" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>2835</v>
       </c>
@@ -55796,7 +55797,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="475" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>2840</v>
       </c>
@@ -55885,7 +55886,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="476" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>2847</v>
       </c>
@@ -55974,7 +55975,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="477" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>2857</v>
       </c>
@@ -56063,7 +56064,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="478" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>2863</v>
       </c>
@@ -56167,7 +56168,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="479" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>2867</v>
       </c>
@@ -56256,7 +56257,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="480" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>2873</v>
       </c>
@@ -56345,7 +56346,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="481" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>2879</v>
       </c>
@@ -56434,7 +56435,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="482" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>2885</v>
       </c>
@@ -56523,7 +56524,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="483" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>2891</v>
       </c>
@@ -56623,7 +56624,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="484" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>2895</v>
       </c>
@@ -56712,7 +56713,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="485" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>2901</v>
       </c>
@@ -56815,7 +56816,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="486" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>2905</v>
       </c>
@@ -56904,7 +56905,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="487" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>2915</v>
       </c>
@@ -56993,7 +56994,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="488" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>2921</v>
       </c>
@@ -57082,7 +57083,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="489" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>2932</v>
       </c>
@@ -57171,7 +57172,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="490" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>2938</v>
       </c>
@@ -57260,7 +57261,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="491" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>2944</v>
       </c>
@@ -57349,7 +57350,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="492" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>2952</v>
       </c>
@@ -57438,7 +57439,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="493" spans="1:29" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:29" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>2958</v>
       </c>
@@ -57527,7 +57528,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="494" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>2967</v>
       </c>
@@ -57616,7 +57617,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="495" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>2977</v>
       </c>
@@ -57705,7 +57706,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="496" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>2990</v>
       </c>
@@ -57794,7 +57795,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="497" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>2996</v>
       </c>
@@ -57883,7 +57884,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="498" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>3002</v>
       </c>
@@ -57972,7 +57973,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="499" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>3008</v>
       </c>
@@ -58150,7 +58151,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="501" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>3026</v>
       </c>
@@ -58239,7 +58240,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="502" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>3032</v>
       </c>
@@ -58328,7 +58329,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="503" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>3039</v>
       </c>
@@ -58417,7 +58418,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="504" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>3048</v>
       </c>
@@ -58506,7 +58507,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="505" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>3054</v>
       </c>
@@ -58595,7 +58596,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="506" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>3060</v>
       </c>
@@ -58684,7 +58685,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="507" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>3068</v>
       </c>
@@ -58773,7 +58774,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="508" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>3074</v>
       </c>
@@ -58964,7 +58965,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="510" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>3084</v>
       </c>
@@ -59053,7 +59054,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="511" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>3090</v>
       </c>
@@ -59142,7 +59143,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="512" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>3097</v>
       </c>
@@ -59231,7 +59232,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="513" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>3103</v>
       </c>
@@ -59320,7 +59321,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="514" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>3109</v>
       </c>
@@ -59409,7 +59410,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="515" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>3115</v>
       </c>
@@ -59498,7 +59499,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="516" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>3121</v>
       </c>
@@ -59587,7 +59588,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="517" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>3127</v>
       </c>
@@ -59689,7 +59690,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="518" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>3131</v>
       </c>
@@ -59792,7 +59793,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="519" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>3135</v>
       </c>
@@ -59881,7 +59882,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="520" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>3144</v>
       </c>
@@ -59970,7 +59971,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="521" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>3150</v>
       </c>
@@ -60059,7 +60060,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="522" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>3156</v>
       </c>
@@ -60148,7 +60149,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="523" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>3165</v>
       </c>
@@ -60237,7 +60238,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="524" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>3172</v>
       </c>
@@ -60326,7 +60327,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="525" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>3178</v>
       </c>
@@ -60415,7 +60416,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="526" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>3184</v>
       </c>
@@ -60504,7 +60505,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="527" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>3190</v>
       </c>
@@ -60593,7 +60594,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="528" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>3196</v>
       </c>
@@ -60682,7 +60683,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="529" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>3204</v>
       </c>
@@ -60771,7 +60772,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="530" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>3208</v>
       </c>
@@ -60860,7 +60861,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="531" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>3214</v>
       </c>
@@ -60949,7 +60950,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="532" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>3221</v>
       </c>
@@ -61038,7 +61039,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="533" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>3227</v>
       </c>
@@ -61127,7 +61128,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="534" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>3233</v>
       </c>
@@ -61216,7 +61217,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="535" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>3241</v>
       </c>
@@ -61320,7 +61321,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="536" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>3245</v>
       </c>
@@ -61409,7 +61410,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="537" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>3251</v>
       </c>
@@ -61498,7 +61499,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="538" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>3257</v>
       </c>
@@ -61587,7 +61588,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="539" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>3266</v>
       </c>
@@ -61676,7 +61677,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="540" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>3272</v>
       </c>
@@ -61765,7 +61766,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="541" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>3278</v>
       </c>
@@ -61869,7 +61870,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="542" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>3282</v>
       </c>
@@ -61958,7 +61959,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="543" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>3288</v>
       </c>
@@ -62047,7 +62048,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="544" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>3297</v>
       </c>
@@ -62136,7 +62137,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="545" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>3305</v>
       </c>
@@ -62225,7 +62226,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="546" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>3314</v>
       </c>
@@ -62314,7 +62315,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="547" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>3321</v>
       </c>
@@ -62403,7 +62404,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="548" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>3329</v>
       </c>
@@ -62492,7 +62493,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="549" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>3336</v>
       </c>
@@ -62581,7 +62582,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="550" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>3342</v>
       </c>
@@ -62670,7 +62671,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="551" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>3348</v>
       </c>
@@ -62759,7 +62760,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="552" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>3355</v>
       </c>
@@ -62848,7 +62849,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="553" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>3365</v>
       </c>
@@ -62937,7 +62938,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="554" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>3371</v>
       </c>
@@ -63041,7 +63042,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="555" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>3375</v>
       </c>
@@ -63130,7 +63131,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="556" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>3381</v>
       </c>
@@ -63219,7 +63220,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="557" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>3387</v>
       </c>
@@ -63308,7 +63309,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="558" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>3394</v>
       </c>
@@ -63397,7 +63398,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="559" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>3404</v>
       </c>
@@ -63486,7 +63487,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="560" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>3410</v>
       </c>
@@ -63575,7 +63576,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="561" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>3418</v>
       </c>
@@ -63664,7 +63665,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="562" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>3425</v>
       </c>
@@ -63842,7 +63843,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="564" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>3440</v>
       </c>
@@ -63931,7 +63932,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="565" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>3446</v>
       </c>
@@ -64020,7 +64021,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="566" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>3452</v>
       </c>
@@ -64109,7 +64110,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="567" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>3458</v>
       </c>
@@ -64198,7 +64199,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="568" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>3466</v>
       </c>
@@ -64287,7 +64288,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="569" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>3472</v>
       </c>
@@ -64376,7 +64377,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="570" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>3478</v>
       </c>
@@ -64465,7 +64466,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="571" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>3485</v>
       </c>
@@ -64554,7 +64555,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="572" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>3491</v>
       </c>
@@ -64643,7 +64644,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="573" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>3501</v>
       </c>
@@ -64732,7 +64733,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="574" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>3507</v>
       </c>
@@ -64821,7 +64822,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="575" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>3516</v>
       </c>
@@ -64910,7 +64911,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="576" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>3522</v>
       </c>
@@ -64999,7 +65000,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="577" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>3529</v>
       </c>
@@ -65088,7 +65089,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="578" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>3535</v>
       </c>
@@ -65177,7 +65178,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="579" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>3541</v>
       </c>
@@ -65355,7 +65356,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="581" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>3555</v>
       </c>
@@ -65444,7 +65445,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="582" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>3561</v>
       </c>
@@ -65533,7 +65534,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="583" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>3569</v>
       </c>
@@ -65622,7 +65623,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="584" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>3575</v>
       </c>
@@ -65711,7 +65712,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="585" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>3583</v>
       </c>
@@ -65800,7 +65801,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="586" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>3589</v>
       </c>
@@ -65889,7 +65890,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="587" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>3596</v>
       </c>
@@ -65978,7 +65979,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="588" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>3605</v>
       </c>
@@ -66067,7 +66068,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="589" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>3612</v>
       </c>
@@ -66156,7 +66157,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="590" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>3622</v>
       </c>
@@ -66245,7 +66246,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="591" spans="1:29" ht="390" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:29" ht="390" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>3629</v>
       </c>
@@ -66334,7 +66335,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="592" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>3637</v>
       </c>
@@ -66423,7 +66424,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="593" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>3643</v>
       </c>
@@ -66512,7 +66513,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="594" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>3652</v>
       </c>
@@ -66601,7 +66602,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="595" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>3657</v>
       </c>
@@ -66690,7 +66691,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="596" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>3662</v>
       </c>
@@ -66779,7 +66780,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="597" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>3670</v>
       </c>
@@ -66868,7 +66869,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="598" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>3678</v>
       </c>
@@ -66957,7 +66958,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="599" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>3683</v>
       </c>
@@ -67046,7 +67047,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="600" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>3691</v>
       </c>
@@ -67135,7 +67136,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="601" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>3809</v>
       </c>
@@ -67228,7 +67229,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="602" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>3812</v>
       </c>
@@ -67321,7 +67322,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="603" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>3815</v>
       </c>
@@ -67414,7 +67415,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="604" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>3818</v>
       </c>
@@ -67507,7 +67508,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="605" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>3821</v>
       </c>
@@ -67600,7 +67601,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="606" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>3824</v>
       </c>
@@ -67693,7 +67694,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="607" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>3827</v>
       </c>
@@ -67786,7 +67787,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="608" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>3830</v>
       </c>
@@ -67880,6 +67881,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AC608" xr:uid="{6CE7EB28-56C6-4661-A107-FC24E54E6505}">
+    <filterColumn colId="22">
+      <filters>
+        <filter val="Yes"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
